--- a/MATCH/EMA/backend/match_ema_keys.xlsx
+++ b/MATCH/EMA/backend/match_ema_keys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangjink\Documents\Bitbucket\reach\MATCH\EMA\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangjink\Documents\GitHub\reach\MATCH\EMA\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="W1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="mother" sheetId="2" r:id="rId3"/>
     <sheet name="child" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="846">
   <si>
     <t>question</t>
   </si>
@@ -2562,6 +2562,9 @@
   </si>
   <si>
     <t>Data cutoff between April 10 to 13 for the mother</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -5169,7 +5172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -8698,8 +8701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8890,6 +8893,9 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
+      <c r="B13" t="s">
+        <v>845</v>
+      </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -9784,6 +9790,9 @@
       <c r="A58" t="s">
         <v>152</v>
       </c>
+      <c r="B58" t="s">
+        <v>845</v>
+      </c>
       <c r="C58" t="s">
         <v>151</v>
       </c>
@@ -9812,6 +9821,9 @@
       <c r="A60" t="s">
         <v>156</v>
       </c>
+      <c r="B60" t="s">
+        <v>845</v>
+      </c>
       <c r="C60" t="s">
         <v>155</v>
       </c>
@@ -9826,6 +9838,9 @@
       <c r="A61" t="s">
         <v>158</v>
       </c>
+      <c r="B61" t="s">
+        <v>845</v>
+      </c>
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -9840,6 +9855,9 @@
       <c r="A62" t="s">
         <v>160</v>
       </c>
+      <c r="B62" t="s">
+        <v>845</v>
+      </c>
       <c r="C62" t="s">
         <v>159</v>
       </c>
@@ -9868,6 +9886,9 @@
       <c r="A64" t="s">
         <v>164</v>
       </c>
+      <c r="B64" t="s">
+        <v>845</v>
+      </c>
       <c r="C64" t="s">
         <v>163</v>
       </c>
@@ -9896,6 +9917,9 @@
       <c r="A66" t="s">
         <v>168</v>
       </c>
+      <c r="B66" t="s">
+        <v>845</v>
+      </c>
       <c r="C66" t="s">
         <v>167</v>
       </c>
@@ -9910,6 +9934,9 @@
       <c r="A67" t="s">
         <v>170</v>
       </c>
+      <c r="B67" t="s">
+        <v>845</v>
+      </c>
       <c r="C67" t="s">
         <v>169</v>
       </c>
@@ -9924,6 +9951,9 @@
       <c r="A68" t="s">
         <v>172</v>
       </c>
+      <c r="B68" t="s">
+        <v>845</v>
+      </c>
       <c r="C68" t="s">
         <v>171</v>
       </c>
@@ -9952,6 +9982,9 @@
       <c r="A70" t="s">
         <v>176</v>
       </c>
+      <c r="B70" t="s">
+        <v>845</v>
+      </c>
       <c r="C70" t="s">
         <v>175</v>
       </c>
@@ -10366,6 +10399,9 @@
       <c r="A91" t="s">
         <v>201</v>
       </c>
+      <c r="B91" t="s">
+        <v>845</v>
+      </c>
       <c r="C91" t="s">
         <v>90</v>
       </c>
@@ -10379,6 +10415,9 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>203</v>
+      </c>
+      <c r="B92" t="s">
+        <v>845</v>
       </c>
       <c r="C92" t="s">
         <v>202</v>
@@ -10583,7 +10622,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10746,6 +10785,9 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
+      <c r="B11" t="s">
+        <v>845</v>
+      </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
@@ -10760,6 +10802,9 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12" t="s">
+        <v>845</v>
+      </c>
       <c r="C12" t="s">
         <v>72</v>
       </c>
@@ -10774,6 +10819,9 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
+      <c r="B13" t="s">
+        <v>845</v>
+      </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -11088,6 +11136,9 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
+      <c r="B29" t="s">
+        <v>845</v>
+      </c>
       <c r="C29" t="s">
         <v>90</v>
       </c>
@@ -11101,6 +11152,9 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>845</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>

--- a/MATCH/EMA/backend/match_ema_keys.xlsx
+++ b/MATCH/EMA/backend/match_ema_keys.xlsx
@@ -1047,7 +1047,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1064,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1082,13 +1092,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1405,10 +1421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1436,8 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1459,6 +1480,8 @@
       <c r="D2" s="3">
         <v>41885</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="H2">
         <f>D2-C2</f>
         <v>7</v>
@@ -1477,6 +1500,10 @@
       <c r="D3" s="3">
         <v>41885</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>41878</v>
+      </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="0">D3-C3</f>
         <v>14</v>
@@ -1495,6 +1522,8 @@
       <c r="D4" s="3">
         <v>41878</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1513,6 +1542,8 @@
       <c r="D5" s="3">
         <v>41920</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1531,6 +1562,8 @@
       <c r="D6" s="3">
         <v>41892</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1549,6 +1582,8 @@
       <c r="D7" s="3">
         <v>41892</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1567,6 +1602,8 @@
       <c r="D8" s="3">
         <v>41920</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1585,6 +1622,8 @@
       <c r="D9" s="3">
         <v>41899</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1603,6 +1642,8 @@
       <c r="D10" s="3">
         <v>41906</v>
       </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1621,6 +1662,10 @@
       <c r="D11" s="3">
         <v>41906</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>41899</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1639,6 +1684,8 @@
       <c r="D12" s="3">
         <v>41913</v>
       </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="H12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1657,6 +1704,8 @@
       <c r="D13" s="3">
         <v>41913</v>
       </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1675,6 +1724,8 @@
       <c r="D14" s="3">
         <v>41920</v>
       </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1693,6 +1744,8 @@
       <c r="D15" s="3">
         <v>41927</v>
       </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1711,6 +1764,8 @@
       <c r="D16" s="3">
         <v>41934</v>
       </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1729,6 +1784,8 @@
       <c r="D17" s="3">
         <v>41927</v>
       </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="H17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1747,6 +1804,8 @@
       <c r="D18" s="3">
         <v>41920</v>
       </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="H18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1765,6 +1824,8 @@
       <c r="D19" s="3">
         <v>41920</v>
       </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="H19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1783,6 +1844,8 @@
       <c r="D20" s="3">
         <v>41927</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="H20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1801,6 +1864,8 @@
       <c r="D21" s="3">
         <v>41934</v>
       </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="H21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1819,6 +1884,10 @@
       <c r="D22" s="3">
         <v>41942</v>
       </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <v>41941</v>
+      </c>
       <c r="H22">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1837,6 +1906,8 @@
       <c r="D23" s="3">
         <v>41927</v>
       </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
       <c r="H23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1855,6 +1926,8 @@
       <c r="D24" s="3">
         <v>41927</v>
       </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="H24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1873,6 +1946,10 @@
       <c r="D25" s="3">
         <v>41984</v>
       </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <v>41983</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1891,6 +1968,8 @@
       <c r="D26" s="3">
         <v>41955</v>
       </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="H26">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1909,6 +1988,8 @@
       <c r="D27" s="3">
         <v>41955</v>
       </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="H27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1927,6 +2008,8 @@
       <c r="D28" s="3">
         <v>41955</v>
       </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="H28">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1945,6 +2028,8 @@
       <c r="D29" s="3">
         <v>41948</v>
       </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="H29">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1963,6 +2048,8 @@
       <c r="D30" s="3">
         <v>41941</v>
       </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1981,6 +2068,8 @@
       <c r="D31" s="3">
         <v>41941</v>
       </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="H31">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1999,6 +2088,8 @@
       <c r="D32" s="3">
         <v>41955</v>
       </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
       <c r="H32">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2017,6 +2108,8 @@
       <c r="D33" s="3">
         <v>41948</v>
       </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="H33">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2035,6 +2128,8 @@
       <c r="D34" s="3">
         <v>41949</v>
       </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
       <c r="H34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2053,6 +2148,8 @@
       <c r="D35" s="3">
         <v>41962</v>
       </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
       <c r="H35">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2071,6 +2168,8 @@
       <c r="D36" s="3">
         <v>41949</v>
       </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
       <c r="H36">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2089,6 +2188,8 @@
       <c r="D37" s="3">
         <v>41969</v>
       </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
       <c r="H37">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2107,6 +2208,8 @@
       <c r="D38" s="3">
         <v>41949</v>
       </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
       <c r="H38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2125,6 +2228,8 @@
       <c r="D39" s="3">
         <v>41956</v>
       </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="H39">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2143,6 +2248,8 @@
       <c r="D40" s="3">
         <v>41962</v>
       </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
       <c r="H40">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2161,6 +2268,8 @@
       <c r="D41" s="3">
         <v>41962</v>
       </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
       <c r="H41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2179,6 +2288,8 @@
       <c r="D42" s="3">
         <v>41963</v>
       </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
       <c r="H42">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2197,6 +2308,8 @@
       <c r="D43" s="3">
         <v>41963</v>
       </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
       <c r="H43">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2210,14 +2323,18 @@
         <v>316</v>
       </c>
       <c r="C44" s="3">
-        <v>41976</v>
+        <v>41962</v>
       </c>
       <c r="D44" s="3">
         <v>41983</v>
       </c>
+      <c r="E44" s="3">
+        <v>41976</v>
+      </c>
+      <c r="F44" s="5"/>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2233,6 +2350,8 @@
       <c r="D45" s="3">
         <v>41969</v>
       </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
       <c r="H45">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2251,6 +2370,10 @@
       <c r="D46" s="3">
         <v>41984</v>
       </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5">
+        <v>41969</v>
+      </c>
       <c r="H46">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2269,6 +2392,8 @@
       <c r="D47" s="3">
         <v>41969</v>
       </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
       <c r="H47">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2287,6 +2412,8 @@
       <c r="D48" s="3">
         <v>41969</v>
       </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
       <c r="H48">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2305,6 +2432,8 @@
       <c r="D49" s="3">
         <v>41969</v>
       </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
       <c r="H49">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2323,6 +2452,8 @@
       <c r="D50" s="3">
         <v>41983</v>
       </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
       <c r="H50">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2341,6 +2472,8 @@
       <c r="D51" s="3">
         <v>42026</v>
       </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
       <c r="H51">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2359,6 +2492,8 @@
       <c r="D52" s="3">
         <v>42019</v>
       </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
       <c r="H52">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2377,6 +2512,10 @@
       <c r="D53" s="3">
         <v>42026</v>
       </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5">
+        <v>42025</v>
+      </c>
       <c r="H53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2395,6 +2534,10 @@
       <c r="D54" s="3">
         <v>41991</v>
       </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5">
+        <v>41990</v>
+      </c>
       <c r="H54">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2413,6 +2556,8 @@
       <c r="D55" s="3">
         <v>41984</v>
       </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
       <c r="H55">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2431,6 +2576,8 @@
       <c r="D56" s="3">
         <v>41990</v>
       </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
       <c r="H56">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2449,6 +2596,8 @@
       <c r="D57" s="3">
         <v>41990</v>
       </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
       <c r="H57">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2467,6 +2616,8 @@
       <c r="D58" s="3">
         <v>41990</v>
       </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
       <c r="H58">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2485,6 +2636,8 @@
       <c r="D59" s="3">
         <v>41991</v>
       </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
       <c r="H59">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2503,6 +2656,8 @@
       <c r="D60" s="3">
         <v>41984</v>
       </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
       <c r="H60">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2521,6 +2676,8 @@
       <c r="D61" s="3">
         <v>41991</v>
       </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
       <c r="H61">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2539,6 +2696,8 @@
       <c r="D62" s="3">
         <v>42067</v>
       </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
       <c r="H62">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2557,6 +2716,8 @@
       <c r="D63" s="3">
         <v>41991</v>
       </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
       <c r="H63">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2575,6 +2736,8 @@
       <c r="D64" s="3">
         <v>41991</v>
       </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
       <c r="H64">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2593,6 +2756,8 @@
       <c r="D65" s="3">
         <v>42025</v>
       </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="5"/>
       <c r="H65">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2611,6 +2776,8 @@
       <c r="D66" s="3">
         <v>42026</v>
       </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
       <c r="H66">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2629,6 +2796,8 @@
       <c r="D67" s="3">
         <v>42026</v>
       </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
       <c r="H67">
         <f t="shared" ref="H67:H130" si="1">D67-C67</f>
         <v>7</v>
@@ -2647,6 +2816,8 @@
       <c r="D68" s="3">
         <v>42026</v>
       </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
       <c r="H68">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2665,6 +2836,8 @@
       <c r="D69" s="3">
         <v>42032</v>
       </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
       <c r="H69">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2683,6 +2856,8 @@
       <c r="D70" s="3">
         <v>42032</v>
       </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
       <c r="H70">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2701,6 +2876,8 @@
       <c r="D71" s="3">
         <v>42039</v>
       </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
       <c r="H71">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2719,6 +2896,10 @@
       <c r="D72" s="3">
         <v>42033</v>
       </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5">
+        <v>42032</v>
+      </c>
       <c r="H72">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2737,6 +2918,10 @@
       <c r="D73" s="3">
         <v>42033</v>
       </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="5">
+        <v>42032</v>
+      </c>
       <c r="H73">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2755,6 +2940,10 @@
       <c r="D74" s="3">
         <v>42033</v>
       </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5">
+        <v>42032</v>
+      </c>
       <c r="H74">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2773,6 +2962,10 @@
       <c r="D75" s="3">
         <v>42040</v>
       </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5">
+        <v>42039</v>
+      </c>
       <c r="H75">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2791,6 +2984,8 @@
       <c r="D76" s="3">
         <v>42033</v>
       </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
       <c r="H76">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2809,6 +3004,8 @@
       <c r="D77" s="3">
         <v>42039</v>
       </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
       <c r="H77">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2827,6 +3024,8 @@
       <c r="D78" s="3">
         <v>42060</v>
       </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
       <c r="H78">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2845,6 +3044,8 @@
       <c r="D79" s="3">
         <v>42067</v>
       </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="5"/>
       <c r="H79">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2863,6 +3064,10 @@
       <c r="D80" s="3">
         <v>42082</v>
       </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5">
+        <v>42075</v>
+      </c>
       <c r="H80">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2881,6 +3086,8 @@
       <c r="D81" s="3">
         <v>42067</v>
       </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="5"/>
       <c r="H81">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2899,6 +3106,8 @@
       <c r="D82" s="3">
         <v>42075</v>
       </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="5"/>
       <c r="H82">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2917,6 +3126,8 @@
       <c r="D83" s="3">
         <v>42067</v>
       </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="5"/>
       <c r="H83">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2935,6 +3146,8 @@
       <c r="D84" s="3">
         <v>42060</v>
       </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="5"/>
       <c r="H84">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2953,6 +3166,8 @@
       <c r="D85" s="3">
         <v>42060</v>
       </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="5"/>
       <c r="H85">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2971,6 +3186,8 @@
       <c r="D86" s="3">
         <v>42060</v>
       </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="5"/>
       <c r="H86">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2989,6 +3206,8 @@
       <c r="D87" s="3">
         <v>42075</v>
       </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="5"/>
       <c r="H87">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3007,6 +3226,8 @@
       <c r="D88" s="3">
         <v>42060</v>
       </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="5"/>
       <c r="H88">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3025,6 +3246,8 @@
       <c r="D89" s="3">
         <v>42067</v>
       </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
       <c r="H89">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3043,6 +3266,8 @@
       <c r="D90" s="3">
         <v>42068</v>
       </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="5"/>
       <c r="H90">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3061,6 +3286,8 @@
       <c r="D91" s="3">
         <v>42075</v>
       </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="5"/>
       <c r="H91">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3079,6 +3306,8 @@
       <c r="D92" s="3">
         <v>42061</v>
       </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="5"/>
       <c r="H92">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3097,6 +3326,8 @@
       <c r="D93" s="3">
         <v>42068</v>
       </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="5"/>
       <c r="H93">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3115,6 +3346,8 @@
       <c r="D94" s="3">
         <v>42061</v>
       </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="5"/>
       <c r="H94">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3133,6 +3366,8 @@
       <c r="D95" s="3">
         <v>42074</v>
       </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="5"/>
       <c r="H95">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3151,6 +3386,8 @@
       <c r="D96" s="3">
         <v>42075</v>
       </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="5"/>
       <c r="H96">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3169,6 +3406,10 @@
       <c r="D97" s="3">
         <v>42082</v>
       </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="5">
+        <v>42081</v>
+      </c>
       <c r="H97">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3187,6 +3428,8 @@
       <c r="D98" s="3">
         <v>42081</v>
       </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="5"/>
       <c r="H98">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3205,6 +3448,8 @@
       <c r="D99" s="3">
         <v>42095</v>
       </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="5"/>
       <c r="H99">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3223,6 +3468,8 @@
       <c r="D100" s="3">
         <v>42095</v>
       </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="5"/>
       <c r="H100">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3241,6 +3488,8 @@
       <c r="D101" s="3">
         <v>42088</v>
       </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="5"/>
       <c r="H101">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3259,6 +3508,8 @@
       <c r="D102" s="3">
         <v>42082</v>
       </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="5"/>
       <c r="H102">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3277,6 +3528,8 @@
       <c r="D103" s="3">
         <v>42082</v>
       </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
       <c r="H103">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3295,6 +3548,8 @@
       <c r="D104" s="3">
         <v>42082</v>
       </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="5"/>
       <c r="H104">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3313,6 +3568,8 @@
       <c r="D105" s="3">
         <v>42082</v>
       </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="5"/>
       <c r="H105">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3331,6 +3588,10 @@
       <c r="D106" s="3">
         <v>42089</v>
       </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="5">
+        <v>42088</v>
+      </c>
       <c r="H106">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3349,6 +3610,10 @@
       <c r="D107" s="3">
         <v>42088</v>
       </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="5">
+        <v>42082</v>
+      </c>
       <c r="H107">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3367,6 +3632,8 @@
       <c r="D108" s="3">
         <v>42088</v>
       </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="5"/>
       <c r="H108">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3385,6 +3652,8 @@
       <c r="D109" s="3">
         <v>42082</v>
       </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="5"/>
       <c r="H109">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3403,6 +3672,8 @@
       <c r="D110" s="3">
         <v>42081</v>
       </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="5"/>
       <c r="H110">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3421,6 +3692,8 @@
       <c r="D111" s="3">
         <v>42095</v>
       </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="5"/>
       <c r="H111">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3439,6 +3712,8 @@
       <c r="D112" s="3">
         <v>42095</v>
       </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="5"/>
       <c r="H112">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3457,6 +3732,8 @@
       <c r="D113" s="3">
         <v>42088</v>
       </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="5"/>
       <c r="H113">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3475,6 +3752,8 @@
       <c r="D114" s="3">
         <v>42088</v>
       </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="5"/>
       <c r="H114">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3493,6 +3772,8 @@
       <c r="D115" s="3">
         <v>42089</v>
       </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="5"/>
       <c r="H115">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3511,6 +3792,8 @@
       <c r="D116" s="3">
         <v>42089</v>
       </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="5"/>
       <c r="H116">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3529,6 +3812,8 @@
       <c r="D117" s="3">
         <v>42096</v>
       </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="5"/>
       <c r="H117">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3547,6 +3832,8 @@
       <c r="D118" s="3">
         <v>42095</v>
       </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="5"/>
       <c r="H118">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3565,6 +3852,8 @@
       <c r="D119" s="3">
         <v>42096</v>
       </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="5"/>
       <c r="H119">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3583,6 +3872,8 @@
       <c r="D120" s="3">
         <v>42110</v>
       </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="5"/>
       <c r="H120">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3601,6 +3892,8 @@
       <c r="D121" s="3">
         <v>42096</v>
       </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="5"/>
       <c r="H121">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3619,6 +3912,8 @@
       <c r="D122" s="3">
         <v>42103</v>
       </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="5"/>
       <c r="H122">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3637,6 +3932,10 @@
       <c r="D123" s="3">
         <v>42109</v>
       </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="5">
+        <v>42102</v>
+      </c>
       <c r="H123">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3655,6 +3954,8 @@
       <c r="D124" s="3">
         <v>42096</v>
       </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="5"/>
       <c r="H124">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3673,6 +3974,8 @@
       <c r="D125" s="3">
         <v>42102</v>
       </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="5"/>
       <c r="H125">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3691,6 +3994,8 @@
       <c r="D126" s="3">
         <v>42109</v>
       </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="5"/>
       <c r="H126">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3709,6 +4014,8 @@
       <c r="D127" s="3">
         <v>42109</v>
       </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="5"/>
       <c r="H127">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3727,6 +4034,8 @@
       <c r="D128" s="3">
         <v>42102</v>
       </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="5"/>
       <c r="H128">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3745,6 +4054,8 @@
       <c r="D129" s="3">
         <v>42109</v>
       </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="5"/>
       <c r="H129">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3763,6 +4074,8 @@
       <c r="D130" s="3">
         <v>42102</v>
       </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="5"/>
       <c r="H130">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3781,6 +4094,8 @@
       <c r="D131" s="3">
         <v>42109</v>
       </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="5"/>
       <c r="H131">
         <f t="shared" ref="H131:H194" si="2">D131-C131</f>
         <v>7</v>
@@ -3799,6 +4114,8 @@
       <c r="D132" s="3">
         <v>42116</v>
       </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="5"/>
       <c r="H132">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3817,6 +4134,8 @@
       <c r="D133" s="3">
         <v>42109</v>
       </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="5"/>
       <c r="H133">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3835,6 +4154,8 @@
       <c r="D134" s="3">
         <v>42110</v>
       </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="5"/>
       <c r="H134">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3853,6 +4174,8 @@
       <c r="D135" s="3">
         <v>42110</v>
       </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="5"/>
       <c r="H135">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3871,6 +4194,8 @@
       <c r="D136" s="3">
         <v>42110</v>
       </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5"/>
       <c r="H136">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3889,6 +4214,8 @@
       <c r="D137" s="3">
         <v>42116</v>
       </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="5"/>
       <c r="H137">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3907,6 +4234,8 @@
       <c r="D138" s="3">
         <v>42116</v>
       </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="5"/>
       <c r="H138">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3925,6 +4254,8 @@
       <c r="D139" s="3">
         <v>42124</v>
       </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="5"/>
       <c r="H139">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3943,6 +4274,10 @@
       <c r="D140" s="3">
         <v>42117</v>
       </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="5">
+        <v>42116</v>
+      </c>
       <c r="H140">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3961,6 +4296,8 @@
       <c r="D141" s="3">
         <v>42123</v>
       </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="5"/>
       <c r="H141">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3979,6 +4316,8 @@
       <c r="D142" s="3">
         <v>42130</v>
       </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="5"/>
       <c r="H142">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3997,6 +4336,8 @@
       <c r="D143" s="3">
         <v>42117</v>
       </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="5"/>
       <c r="H143">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4015,6 +4356,8 @@
       <c r="D144" s="3">
         <v>42117</v>
       </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="5"/>
       <c r="H144">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4033,6 +4376,8 @@
       <c r="D145" s="3">
         <v>42123</v>
       </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="5"/>
       <c r="H145">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4051,6 +4396,8 @@
       <c r="D146" s="3">
         <v>42117</v>
       </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="5"/>
       <c r="H146">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4069,6 +4416,8 @@
       <c r="D147" s="3">
         <v>42117</v>
       </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="5"/>
       <c r="H147">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4087,6 +4436,8 @@
       <c r="D148" s="3">
         <v>42117</v>
       </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="5"/>
       <c r="H148">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4105,6 +4456,8 @@
       <c r="D149" s="3">
         <v>42123</v>
       </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="5"/>
       <c r="H149">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4123,6 +4476,8 @@
       <c r="D150" s="3">
         <v>42124</v>
       </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="5"/>
       <c r="H150">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4141,6 +4496,10 @@
       <c r="D151" s="3">
         <v>42123</v>
       </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="5">
+        <v>42124</v>
+      </c>
       <c r="H151">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4159,6 +4518,8 @@
       <c r="D152" s="3">
         <v>42124</v>
       </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="5"/>
       <c r="H152">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4177,6 +4538,8 @@
       <c r="D153" s="3">
         <v>42131</v>
       </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="5"/>
       <c r="H153">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4195,6 +4558,8 @@
       <c r="D154" s="3">
         <v>42131</v>
       </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="5"/>
       <c r="H154">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4213,6 +4578,8 @@
       <c r="D155" s="3">
         <v>42124</v>
       </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="5"/>
       <c r="H155">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4231,6 +4598,10 @@
       <c r="D156" s="3">
         <v>42137</v>
       </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="5">
+        <v>42130</v>
+      </c>
       <c r="H156">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4249,6 +4620,8 @@
       <c r="D157" s="3">
         <v>42130</v>
       </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="5"/>
       <c r="H157">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4267,6 +4640,8 @@
       <c r="D158" s="3">
         <v>42131</v>
       </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="5"/>
       <c r="H158">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4285,6 +4660,8 @@
       <c r="D159" s="3">
         <v>42143</v>
       </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="5"/>
       <c r="H159">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4303,6 +4680,8 @@
       <c r="D160" s="3">
         <v>42130</v>
       </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="5"/>
       <c r="H160">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4321,6 +4700,8 @@
       <c r="D161" s="3">
         <v>42130</v>
       </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="5"/>
       <c r="H161">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4339,6 +4720,8 @@
       <c r="D162" s="3">
         <v>42143</v>
       </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="5"/>
       <c r="H162">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4357,6 +4740,8 @@
       <c r="D163" s="3">
         <v>42136</v>
       </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="5"/>
       <c r="H163">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4375,6 +4760,8 @@
       <c r="D164" s="3">
         <v>42136</v>
       </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="5"/>
       <c r="H164">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4393,6 +4780,8 @@
       <c r="D165" s="3">
         <v>42136</v>
       </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="5"/>
       <c r="H165">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4411,6 +4800,8 @@
       <c r="D166" s="3">
         <v>42138</v>
       </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="5"/>
       <c r="H166">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4429,6 +4820,8 @@
       <c r="D167" s="3">
         <v>42136</v>
       </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="5"/>
       <c r="H167">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4447,6 +4840,8 @@
       <c r="D168" s="3">
         <v>42138</v>
       </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="5"/>
       <c r="H168">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4465,6 +4860,10 @@
       <c r="D169" s="3">
         <v>42145</v>
       </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="5">
+        <v>42144</v>
+      </c>
       <c r="H169">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4483,6 +4882,8 @@
       <c r="D170" s="3">
         <v>42158</v>
       </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="5"/>
       <c r="H170">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4501,6 +4902,8 @@
       <c r="D171" s="3">
         <v>42143</v>
       </c>
+      <c r="E171" s="4"/>
+      <c r="F171" s="5"/>
       <c r="H171">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4519,6 +4922,8 @@
       <c r="D172" s="3">
         <v>42138</v>
       </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="5"/>
       <c r="H172">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4537,6 +4942,8 @@
       <c r="D173" s="3">
         <v>42143</v>
       </c>
+      <c r="E173" s="4"/>
+      <c r="F173" s="5"/>
       <c r="H173">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4555,6 +4962,10 @@
       <c r="D174" s="3">
         <v>42163</v>
       </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="5">
+        <v>42143</v>
+      </c>
       <c r="H174">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4573,6 +4984,10 @@
       <c r="D175" s="3">
         <v>42152</v>
       </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="5">
+        <v>42145</v>
+      </c>
       <c r="H175">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4591,6 +5006,8 @@
       <c r="D176" s="3">
         <v>42152</v>
       </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="5"/>
       <c r="H176">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4609,6 +5026,8 @@
       <c r="D177" s="3">
         <v>42145</v>
       </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="5"/>
       <c r="H177">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4627,6 +5046,10 @@
       <c r="D178" s="3">
         <v>42150</v>
       </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="5">
+        <v>42145</v>
+      </c>
       <c r="H178">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4645,6 +5068,8 @@
       <c r="D179" s="3">
         <v>42152</v>
       </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="5"/>
       <c r="H179">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4663,6 +5088,8 @@
       <c r="D180" s="3">
         <v>42150</v>
       </c>
+      <c r="E180" s="4"/>
+      <c r="F180" s="5"/>
       <c r="H180">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4681,6 +5108,8 @@
       <c r="D181" s="3">
         <v>42150</v>
       </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="5"/>
       <c r="H181">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4699,6 +5128,10 @@
       <c r="D182" s="3">
         <v>42152</v>
       </c>
+      <c r="E182" s="4"/>
+      <c r="F182" s="5">
+        <v>42151</v>
+      </c>
       <c r="H182">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4717,6 +5150,8 @@
       <c r="D183" s="3">
         <v>42158</v>
       </c>
+      <c r="E183" s="4"/>
+      <c r="F183" s="5"/>
       <c r="H183">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4735,6 +5170,8 @@
       <c r="D184" s="3">
         <v>42151</v>
       </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="5"/>
       <c r="H184">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4753,6 +5190,8 @@
       <c r="D185" s="3">
         <v>42158</v>
       </c>
+      <c r="E185" s="4"/>
+      <c r="F185" s="5"/>
       <c r="H185">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4771,6 +5210,8 @@
       <c r="D186" s="3">
         <v>42158</v>
       </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="5"/>
       <c r="H186">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4789,6 +5230,8 @@
       <c r="D187" s="3">
         <v>42158</v>
       </c>
+      <c r="E187" s="4"/>
+      <c r="F187" s="5"/>
       <c r="H187">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4807,6 +5250,8 @@
       <c r="D188" s="3">
         <v>42404</v>
       </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="5"/>
       <c r="H188">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4825,6 +5270,8 @@
       <c r="D189" s="3">
         <v>42152</v>
       </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="5"/>
       <c r="H189">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4843,6 +5290,8 @@
       <c r="D190" s="3">
         <v>42159</v>
       </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="5"/>
       <c r="H190">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4861,6 +5310,8 @@
       <c r="D191" s="3">
         <v>42388</v>
       </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="5"/>
       <c r="H191">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4879,6 +5330,8 @@
       <c r="D192" s="3">
         <v>42159</v>
       </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="5"/>
       <c r="H192">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4897,6 +5350,8 @@
       <c r="D193" s="3">
         <v>42159</v>
       </c>
+      <c r="E193" s="4"/>
+      <c r="F193" s="5"/>
       <c r="H193">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4915,6 +5370,8 @@
       <c r="D194" s="3">
         <v>42159</v>
       </c>
+      <c r="E194" s="4"/>
+      <c r="F194" s="5"/>
       <c r="H194">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4933,6 +5390,8 @@
       <c r="D195" s="3">
         <v>42313</v>
       </c>
+      <c r="E195" s="4"/>
+      <c r="F195" s="5"/>
       <c r="H195">
         <f t="shared" ref="H195:H203" si="3">D195-C195</f>
         <v>7</v>
@@ -4951,6 +5410,8 @@
       <c r="D196" s="3">
         <v>42346</v>
       </c>
+      <c r="E196" s="4"/>
+      <c r="F196" s="5"/>
       <c r="H196">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4969,6 +5430,8 @@
       <c r="D197" s="3">
         <v>42355</v>
       </c>
+      <c r="E197" s="4"/>
+      <c r="F197" s="5"/>
       <c r="H197">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4987,6 +5450,8 @@
       <c r="D198" s="3">
         <v>42388</v>
       </c>
+      <c r="E198" s="4"/>
+      <c r="F198" s="5"/>
       <c r="H198">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5005,6 +5470,8 @@
       <c r="D199" s="3">
         <v>42388</v>
       </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="5"/>
       <c r="H199">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5023,6 +5490,10 @@
       <c r="D200" s="3">
         <v>42405</v>
       </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="5">
+        <v>42402</v>
+      </c>
       <c r="H200">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -5041,6 +5512,10 @@
       <c r="D201" s="3">
         <v>42418</v>
       </c>
+      <c r="E201" s="4"/>
+      <c r="F201" s="5">
+        <v>42404</v>
+      </c>
       <c r="H201">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -5059,6 +5534,8 @@
       <c r="D202" s="3">
         <v>42411</v>
       </c>
+      <c r="E202" s="4"/>
+      <c r="F202" s="5"/>
       <c r="H202">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5077,13 +5554,16 @@
       <c r="D203" s="3">
         <v>42432</v>
       </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="5"/>
       <c r="H203">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MATCH/EMA/backend/match_ema_keys.xlsx
+++ b/MATCH/EMA/backend/match_ema_keys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangjink\Documents\GitHub\reach\MATCH\EMA\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reach\MATCH\EMA\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="W1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="334">
   <si>
     <t>question</t>
   </si>
@@ -206,471 +206,114 @@
     <t>I was alone</t>
   </si>
   <si>
-    <t>SLEEPTIME</t>
-  </si>
-  <si>
-    <t>WAKEUPTIME</t>
-  </si>
-  <si>
-    <t>TIMESWOKEUP</t>
-  </si>
-  <si>
-    <t>SLEEPQUALITY</t>
-  </si>
-  <si>
-    <t>HAPPY</t>
-  </si>
-  <si>
-    <t>SAD</t>
-  </si>
-  <si>
-    <t>STRESSED</t>
-  </si>
-  <si>
-    <t>DEAL</t>
-  </si>
-  <si>
-    <t>HANDLE</t>
-  </si>
-  <si>
-    <t>ABSENT</t>
-  </si>
-  <si>
-    <t>JOYFUL</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>MANAGE</t>
-  </si>
-  <si>
-    <t>PLANNED</t>
-  </si>
-  <si>
     <t>choices</t>
   </si>
   <si>
-    <t>STRESS</t>
-  </si>
-  <si>
-    <t>STRESS_HW</t>
-  </si>
-  <si>
-    <t>STRESS_NOTWELL</t>
-  </si>
-  <si>
-    <t>STRESS_TEASE</t>
-  </si>
-  <si>
-    <t>STRESS_SOMEONE</t>
-  </si>
-  <si>
-    <t>STRESS_PARENT</t>
-  </si>
-  <si>
-    <t>STRESS_TODO</t>
-  </si>
-  <si>
-    <t>STRESS_NONE</t>
-  </si>
-  <si>
-    <t>DONE_TV</t>
-  </si>
-  <si>
-    <t>DONE_SPORTS</t>
-  </si>
-  <si>
-    <t>DONE_CHIPS</t>
-  </si>
-  <si>
-    <t>DONE_PASTRY</t>
-  </si>
-  <si>
-    <t>DONE_FASTFOOD</t>
-  </si>
-  <si>
-    <t>DONE_FRUIT</t>
-  </si>
-  <si>
-    <t>DONE_SODA</t>
-  </si>
-  <si>
-    <t>DONE_NONE</t>
-  </si>
-  <si>
-    <t>SICK</t>
-  </si>
-  <si>
-    <t>SOCIAL_MOM</t>
-  </si>
-  <si>
-    <t>SOCIAL_DAD</t>
-  </si>
-  <si>
-    <t>SOCIAL_SIBLING</t>
-  </si>
-  <si>
-    <t>SOCIAL_FAMILY</t>
-  </si>
-  <si>
-    <t>SOCIAL_FRIENDS</t>
-  </si>
-  <si>
-    <t>SOCIAL_CLASSMATE</t>
-  </si>
-  <si>
-    <t>SOCIAL_UNKNOWN</t>
-  </si>
-  <si>
-    <t>SOCIAL_ALONE</t>
-  </si>
-  <si>
     <t>Q1_a_excited</t>
   </si>
   <si>
-    <t>ANGRY</t>
-  </si>
-  <si>
     <t>Q1_b_nervous</t>
   </si>
   <si>
     <t>Q1_c_upset</t>
   </si>
   <si>
-    <t>CALM</t>
-  </si>
-  <si>
     <t>Q1_d_enthusiastic</t>
   </si>
   <si>
-    <t>SAD_DEPRESSED</t>
-  </si>
-  <si>
     <t>Q1_e_stressed</t>
   </si>
   <si>
-    <t>STRESS_HOMEWK</t>
-  </si>
-  <si>
     <t>Q4_causeStress</t>
   </si>
   <si>
-    <t>STRESS_JOB</t>
-  </si>
-  <si>
-    <t>STRESS_DEMANDS</t>
-  </si>
-  <si>
-    <t>STRESS_COWRKR</t>
-  </si>
-  <si>
-    <t>STRESS_SPOUSE</t>
-  </si>
-  <si>
-    <t>STRESS_CHILD</t>
-  </si>
-  <si>
-    <t>STRESS_ELSE</t>
-  </si>
-  <si>
     <t>Q5_a_thingsDone</t>
   </si>
   <si>
-    <t>SOCIAL_TV_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b1withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_SPORTS_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b2withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_CHIPS_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b3withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_PASTRY_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b4withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_FASTFOOD_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b5withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_FRUIT_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b6withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_SODA_ALONE</t>
-  </si>
-  <si>
     <t>Q5_b7withAnyone</t>
   </si>
   <si>
-    <t>SOCIAL_TV_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_SPORTS_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_CHIPS_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_PASTRY_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_FASTFOOD_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_FRUIT_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_SODA_CHILD</t>
-  </si>
-  <si>
-    <t>SOCIAL_TV_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIAL_SPORTS_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIAL_CHIPS_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIAL_PASTRY_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIAL_FRUIT_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIAL_SODA_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIAL_TV_OTHER</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>SOCIAL_SPORTS_OTHER</t>
-  </si>
-  <si>
-    <t>SOCIAL_CHIPS_OTHER</t>
-  </si>
-  <si>
-    <t>SOCIAL_PASTRY_OTHER</t>
-  </si>
-  <si>
-    <t>SOCIAL_FASTFOOD_OTHER</t>
-  </si>
-  <si>
-    <t>SOCIAL_FRUIT_OTHER</t>
-  </si>
-  <si>
-    <t>SOCIAL_SODA_OTHER</t>
-  </si>
-  <si>
-    <t>WITHCHILD</t>
-  </si>
-  <si>
     <t>Q6_withChild</t>
   </si>
   <si>
-    <t>ASKTV</t>
-  </si>
-  <si>
     <t>Q7_a_childPlay</t>
   </si>
   <si>
-    <t>LIMITTV</t>
-  </si>
-  <si>
     <t>Q7_b_limitChild</t>
   </si>
   <si>
-    <t>GOPLAY</t>
-  </si>
-  <si>
     <t>Q8_a_encourageChild</t>
   </si>
   <si>
-    <t>TAKEPLAY</t>
-  </si>
-  <si>
     <t>Q8_b_activeChild</t>
   </si>
   <si>
-    <t>ASKJUNKFOOD</t>
-  </si>
-  <si>
     <t>Q9_a_childEatenChips</t>
   </si>
   <si>
-    <t>LIMITJUNKFOOD</t>
-  </si>
-  <si>
     <t>Q9_b_limitChips</t>
   </si>
   <si>
-    <t>ASKFASTFOOD</t>
-  </si>
-  <si>
     <t>Q10_a_fastFood</t>
   </si>
   <si>
-    <t>CONTROLFASTFOOD</t>
-  </si>
-  <si>
     <t>Q10_b_controlChild</t>
   </si>
   <si>
-    <t>GOFRESH</t>
-  </si>
-  <si>
     <t>Q11_a_freshFood</t>
   </si>
   <si>
-    <t>COOKFRESH</t>
-  </si>
-  <si>
     <t>Q11_b_cookedFood</t>
   </si>
   <si>
-    <t>ASKSODA</t>
-  </si>
-  <si>
     <t>Q12_a_askedSoda</t>
   </si>
   <si>
-    <t>LIMITSODA</t>
-  </si>
-  <si>
     <t>Q12_b_limitSoda</t>
   </si>
   <si>
-    <t>RULES_FAMILYMEAL</t>
-  </si>
-  <si>
     <t>Q13_events</t>
   </si>
   <si>
-    <t>RULES_TV</t>
-  </si>
-  <si>
-    <t>RULES_CARMEAL</t>
-  </si>
-  <si>
-    <t>RULES_TVREWARD</t>
-  </si>
-  <si>
-    <t>RULES_FOODREWARD</t>
-  </si>
-  <si>
-    <t>RULES_NONE</t>
-  </si>
-  <si>
-    <t>TIMEUSE_ERRANDS</t>
-  </si>
-  <si>
     <t>Q14_done</t>
   </si>
   <si>
-    <t>TIMEUSE_LESSON</t>
-  </si>
-  <si>
-    <t>TIMEUSE_CHORES</t>
-  </si>
-  <si>
-    <t>TIMEUSE_WORK</t>
-  </si>
-  <si>
-    <t>TIMEUSE_CHILDCARE</t>
-  </si>
-  <si>
-    <t>TIMEUSE_NONE</t>
-  </si>
-  <si>
-    <t>PB_EAT_TIME</t>
-  </si>
-  <si>
     <t>Q15_difficultToCook</t>
   </si>
   <si>
-    <t>PB_EAT_TIRED</t>
-  </si>
-  <si>
-    <t>PB_EAT_STRESS</t>
-  </si>
-  <si>
-    <t>PB_EAT_NONE</t>
-  </si>
-  <si>
-    <t>PB_PA_TIME</t>
-  </si>
-  <si>
     <t>Q16_exercise</t>
   </si>
   <si>
-    <t>PB_PA_TIRED</t>
-  </si>
-  <si>
-    <t>PB_PA_STRESS</t>
-  </si>
-  <si>
-    <t>PB_PA_NONE</t>
-  </si>
-  <si>
     <t>Q17_sick</t>
   </si>
   <si>
-    <t>TIMEOFF</t>
-  </si>
-  <si>
     <t>Q18_timeOff</t>
   </si>
   <si>
-    <t>SOCIALC_SPOUSE</t>
-  </si>
-  <si>
-    <t>SOCIALC_CHILDS</t>
-  </si>
-  <si>
-    <t>SOCIALC_CHILDNS</t>
-  </si>
-  <si>
-    <t>SOCIALC_FAMILY</t>
-  </si>
-  <si>
-    <t>SOCIALC_FRIENDS</t>
-  </si>
-  <si>
-    <t>SOCIALC_COWORKERS</t>
-  </si>
-  <si>
     <t>Coworkers</t>
   </si>
   <si>
-    <t>SOCIALC_ACQUAINT</t>
-  </si>
-  <si>
-    <t>SOCIALC_UNKNOWN</t>
-  </si>
-  <si>
-    <t>SOCIALC_ALONE</t>
-  </si>
-  <si>
     <t>Right before the phone went off, how FRUSTRATED/ANGRY were you feeling?</t>
   </si>
   <si>
@@ -863,9 +506,6 @@
     <t>delayed start</t>
   </si>
   <si>
-    <t>SOCIAL_FAST_SPOUSE</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
@@ -1041,6 +681,354 @@
   </si>
   <si>
     <t>W1pickup</t>
+  </si>
+  <si>
+    <t>Social_chips_alone</t>
+  </si>
+  <si>
+    <t>SleepQuality</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>Stressed</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>SadDepressed</t>
+  </si>
+  <si>
+    <t>Deal</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Stress_cowrkr</t>
+  </si>
+  <si>
+    <t>Stress_spouse</t>
+  </si>
+  <si>
+    <t>Stress_demands</t>
+  </si>
+  <si>
+    <t>Stress_job</t>
+  </si>
+  <si>
+    <t>Stress_homewk</t>
+  </si>
+  <si>
+    <t>Stress_child</t>
+  </si>
+  <si>
+    <t>Stress_none</t>
+  </si>
+  <si>
+    <t>Stress_else</t>
+  </si>
+  <si>
+    <t>Done_tv</t>
+  </si>
+  <si>
+    <t>Done_sports</t>
+  </si>
+  <si>
+    <t>Done_chips</t>
+  </si>
+  <si>
+    <t>Done_pastry</t>
+  </si>
+  <si>
+    <t>Done_fastfood</t>
+  </si>
+  <si>
+    <t>Done_fruit</t>
+  </si>
+  <si>
+    <t>Done_soda</t>
+  </si>
+  <si>
+    <t>Done_none</t>
+  </si>
+  <si>
+    <t>Social_tv_alone</t>
+  </si>
+  <si>
+    <t>Social_tv_child</t>
+  </si>
+  <si>
+    <t>Social_tv_spouse</t>
+  </si>
+  <si>
+    <t>Social_tv_other</t>
+  </si>
+  <si>
+    <t>Social_sports_alone</t>
+  </si>
+  <si>
+    <t>Social_sports_child</t>
+  </si>
+  <si>
+    <t>Social_sports_spouse</t>
+  </si>
+  <si>
+    <t>Social_sports_other</t>
+  </si>
+  <si>
+    <t>Social_chips_child</t>
+  </si>
+  <si>
+    <t>Social_chips_spouse</t>
+  </si>
+  <si>
+    <t>Social_chips_other</t>
+  </si>
+  <si>
+    <t>Social_pastry_alone</t>
+  </si>
+  <si>
+    <t>Social_pastry_child</t>
+  </si>
+  <si>
+    <t>Social_pastry_spouse</t>
+  </si>
+  <si>
+    <t>Social_pastry_other</t>
+  </si>
+  <si>
+    <t>Social_fastfood_alone</t>
+  </si>
+  <si>
+    <t>Social_fastfood_child</t>
+  </si>
+  <si>
+    <t>Social_fastfood_spouse</t>
+  </si>
+  <si>
+    <t>Social_fastfood_other</t>
+  </si>
+  <si>
+    <t>Social_fruit_alone</t>
+  </si>
+  <si>
+    <t>Social_fruit_child</t>
+  </si>
+  <si>
+    <t>Social_fruit_spouse</t>
+  </si>
+  <si>
+    <t>Social_fruit_other</t>
+  </si>
+  <si>
+    <t>Social_soda_alone</t>
+  </si>
+  <si>
+    <t>Social_soda_child</t>
+  </si>
+  <si>
+    <t>Social_soda_spouse</t>
+  </si>
+  <si>
+    <t>Social_soda_other</t>
+  </si>
+  <si>
+    <t>AskTV</t>
+  </si>
+  <si>
+    <t>LimitTV</t>
+  </si>
+  <si>
+    <t>AskJunkfood</t>
+  </si>
+  <si>
+    <t>LimitJunkfood</t>
+  </si>
+  <si>
+    <t>AskFastfood</t>
+  </si>
+  <si>
+    <t>ControlFastfood</t>
+  </si>
+  <si>
+    <t>CookFresh</t>
+  </si>
+  <si>
+    <t>GoFresh</t>
+  </si>
+  <si>
+    <t>AskSoda</t>
+  </si>
+  <si>
+    <t>LimitSoda</t>
+  </si>
+  <si>
+    <t>Rules_tv</t>
+  </si>
+  <si>
+    <t>Rules_tvReward</t>
+  </si>
+  <si>
+    <t>Rules_foodReward</t>
+  </si>
+  <si>
+    <t>Rules_none</t>
+  </si>
+  <si>
+    <t>Timeuse_errands</t>
+  </si>
+  <si>
+    <t>Timeuse_lesson</t>
+  </si>
+  <si>
+    <t>Timeuse_work</t>
+  </si>
+  <si>
+    <t>Timeuse_childcare</t>
+  </si>
+  <si>
+    <t>Timeuse_none</t>
+  </si>
+  <si>
+    <t>Pb_eat_time</t>
+  </si>
+  <si>
+    <t>Pb_eat_tired</t>
+  </si>
+  <si>
+    <t>Pb_eat_stress</t>
+  </si>
+  <si>
+    <t>Pb_eat_none</t>
+  </si>
+  <si>
+    <t>Pb_pa_time</t>
+  </si>
+  <si>
+    <t>Pb_pa_tired</t>
+  </si>
+  <si>
+    <t>Pb_pa_stress</t>
+  </si>
+  <si>
+    <t>Pb_pa_none</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Timeoff</t>
+  </si>
+  <si>
+    <t>Socialc_spouse</t>
+  </si>
+  <si>
+    <t>Socialc_family</t>
+  </si>
+  <si>
+    <t>Socialc_otherChild</t>
+  </si>
+  <si>
+    <t>Socialc_friends</t>
+  </si>
+  <si>
+    <t>Socialc_cowrkr</t>
+  </si>
+  <si>
+    <t>Socialc_acquaint</t>
+  </si>
+  <si>
+    <t>Socialc_unknown</t>
+  </si>
+  <si>
+    <t>Socialc_alone</t>
+  </si>
+  <si>
+    <t>WakeupTime</t>
+  </si>
+  <si>
+    <t>Timeuse_chores</t>
+  </si>
+  <si>
+    <t>Joyful</t>
+  </si>
+  <si>
+    <t>Mad</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Stress_hw</t>
+  </si>
+  <si>
+    <t>Stress_tease</t>
+  </si>
+  <si>
+    <t>Stress_someone</t>
+  </si>
+  <si>
+    <t>Stress_parent</t>
+  </si>
+  <si>
+    <t>Stress_todo</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>SleepTime</t>
+  </si>
+  <si>
+    <t>TimesWokeup</t>
+  </si>
+  <si>
+    <t>Socialc_dyadChild</t>
+  </si>
+  <si>
+    <t>GoPlay</t>
+  </si>
+  <si>
+    <t>TakePlay</t>
+  </si>
+  <si>
+    <t>Stress_notWell</t>
+  </si>
+  <si>
+    <t>WithChild</t>
+  </si>
+  <si>
+    <t>Socialc_mom</t>
+  </si>
+  <si>
+    <t>Socialc_dad</t>
+  </si>
+  <si>
+    <t>Socialc_sibling</t>
+  </si>
+  <si>
+    <t>Socialc_classmate</t>
+  </si>
+  <si>
+    <t>Rules_familyMeal</t>
+  </si>
+  <si>
+    <t>Rules_carMeal</t>
   </si>
 </sst>
 </file>
@@ -1426,45 +1414,45 @@
   </sheetPr>
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,7 +1460,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C2" s="3">
         <v>41878</v>
@@ -1492,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3">
         <v>41871</v>
@@ -1514,7 +1502,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3">
         <v>41871</v>
@@ -1534,7 +1522,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3">
         <v>41913</v>
@@ -1554,7 +1542,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C6" s="3">
         <v>41885</v>
@@ -1574,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C7" s="3">
         <v>41885</v>
@@ -1594,7 +1582,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3">
         <v>41913</v>
@@ -1614,7 +1602,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3">
         <v>41892</v>
@@ -1634,7 +1622,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3">
         <v>41899</v>
@@ -1654,7 +1642,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C11" s="3">
         <v>41892</v>
@@ -1676,7 +1664,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3">
         <v>41906</v>
@@ -1696,7 +1684,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C13" s="3">
         <v>41906</v>
@@ -1716,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C14" s="3">
         <v>41913</v>
@@ -1736,7 +1724,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C15" s="3">
         <v>41920</v>
@@ -1756,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C16" s="3">
         <v>41927</v>
@@ -1776,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3">
         <v>41920</v>
@@ -1796,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C18" s="3">
         <v>41913</v>
@@ -1816,7 +1804,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C19" s="3">
         <v>41913</v>
@@ -1836,7 +1824,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C20" s="3">
         <v>41920</v>
@@ -1856,7 +1844,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C21" s="3">
         <v>41927</v>
@@ -1876,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C22" s="3">
         <v>41934</v>
@@ -1898,7 +1886,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C23" s="3">
         <v>41920</v>
@@ -1918,7 +1906,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C24" s="3">
         <v>41920</v>
@@ -1938,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3">
         <v>41976</v>
@@ -1960,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C26" s="3">
         <v>41948</v>
@@ -1980,7 +1968,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C27" s="3">
         <v>41948</v>
@@ -2000,7 +1988,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C28" s="3">
         <v>41948</v>
@@ -2020,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C29" s="3">
         <v>41941</v>
@@ -2040,7 +2028,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C30" s="3">
         <v>41934</v>
@@ -2060,7 +2048,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C31" s="3">
         <v>41934</v>
@@ -2080,7 +2068,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C32" s="3">
         <v>41948</v>
@@ -2100,7 +2088,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C33" s="3">
         <v>41941</v>
@@ -2120,7 +2108,7 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C34" s="3">
         <v>41942</v>
@@ -2140,7 +2128,7 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3">
         <v>41955</v>
@@ -2160,7 +2148,7 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C36" s="3">
         <v>41942</v>
@@ -2180,7 +2168,7 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C37" s="3">
         <v>41962</v>
@@ -2200,7 +2188,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C38" s="3">
         <v>41942</v>
@@ -2220,7 +2208,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C39" s="3">
         <v>41949</v>
@@ -2240,7 +2228,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C40" s="3">
         <v>41955</v>
@@ -2260,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C41" s="3">
         <v>41955</v>
@@ -2280,7 +2268,7 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C42" s="3">
         <v>41956</v>
@@ -2300,7 +2288,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C43" s="3">
         <v>41956</v>
@@ -2320,7 +2308,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C44" s="3">
         <v>41962</v>
@@ -2342,7 +2330,7 @@
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C45" s="3">
         <v>41962</v>
@@ -2362,7 +2350,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C46" s="3">
         <v>41962</v>
@@ -2384,7 +2372,7 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C47" s="3">
         <v>41962</v>
@@ -2404,7 +2392,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C48" s="3">
         <v>41962</v>
@@ -2424,7 +2412,7 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C49" s="3">
         <v>41962</v>
@@ -2444,7 +2432,7 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C50" s="3">
         <v>41976</v>
@@ -2464,7 +2452,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C51" s="3">
         <v>42019</v>
@@ -2484,7 +2472,7 @@
         <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C52" s="3">
         <v>42012</v>
@@ -2504,7 +2492,7 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C53" s="3">
         <v>42018</v>
@@ -2526,7 +2514,7 @@
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C54" s="3">
         <v>41983</v>
@@ -2548,7 +2536,7 @@
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3">
         <v>41977</v>
@@ -2568,7 +2556,7 @@
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C56" s="3">
         <v>41983</v>
@@ -2588,7 +2576,7 @@
         <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C57" s="3">
         <v>41983</v>
@@ -2608,7 +2596,7 @@
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C58" s="3">
         <v>41983</v>
@@ -2628,7 +2616,7 @@
         <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C59" s="3">
         <v>41984</v>
@@ -2648,7 +2636,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C60" s="3">
         <v>41977</v>
@@ -2668,7 +2656,7 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C61" s="3">
         <v>41984</v>
@@ -2688,7 +2676,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C62" s="3">
         <v>42060</v>
@@ -2708,7 +2696,7 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C63" s="3">
         <v>41984</v>
@@ -2728,7 +2716,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C64" s="3">
         <v>41984</v>
@@ -2748,7 +2736,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C65" s="3">
         <v>42018</v>
@@ -2768,7 +2756,7 @@
         <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C66" s="3">
         <v>42019</v>
@@ -2788,7 +2776,7 @@
         <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C67" s="3">
         <v>42019</v>
@@ -2808,7 +2796,7 @@
         <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C68" s="3">
         <v>42019</v>
@@ -2828,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C69" s="3">
         <v>42025</v>
@@ -2848,7 +2836,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C70" s="3">
         <v>42025</v>
@@ -2868,7 +2856,7 @@
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C71" s="3">
         <v>42032</v>
@@ -2888,7 +2876,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C72" s="3">
         <v>42025</v>
@@ -2910,7 +2898,7 @@
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C73" s="3">
         <v>42025</v>
@@ -2932,7 +2920,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C74" s="3">
         <v>42025</v>
@@ -2954,7 +2942,7 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C75" s="3">
         <v>42032</v>
@@ -2976,7 +2964,7 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C76" s="3">
         <v>42026</v>
@@ -2996,7 +2984,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C77" s="3">
         <v>42032</v>
@@ -3016,7 +3004,7 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C78" s="3">
         <v>42053</v>
@@ -3036,7 +3024,7 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C79" s="3">
         <v>42060</v>
@@ -3056,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C80" s="3">
         <v>42068</v>
@@ -3078,7 +3066,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C81" s="3">
         <v>42060</v>
@@ -3098,7 +3086,7 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C82" s="3">
         <v>42068</v>
@@ -3118,7 +3106,7 @@
         <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C83" s="3">
         <v>42060</v>
@@ -3138,7 +3126,7 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C84" s="3">
         <v>42053</v>
@@ -3158,7 +3146,7 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C85" s="3">
         <v>42053</v>
@@ -3178,7 +3166,7 @@
         <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C86" s="3">
         <v>42053</v>
@@ -3198,7 +3186,7 @@
         <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C87" s="3">
         <v>42068</v>
@@ -3218,7 +3206,7 @@
         <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C88" s="3">
         <v>42053</v>
@@ -3238,7 +3226,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C89" s="3">
         <v>42060</v>
@@ -3258,7 +3246,7 @@
         <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C90" s="3">
         <v>42061</v>
@@ -3278,7 +3266,7 @@
         <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C91" s="3">
         <v>42068</v>
@@ -3298,7 +3286,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C92" s="3">
         <v>42054</v>
@@ -3318,7 +3306,7 @@
         <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C93" s="3">
         <v>42061</v>
@@ -3338,7 +3326,7 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C94" s="3">
         <v>42054</v>
@@ -3358,7 +3346,7 @@
         <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C95" s="3">
         <v>42067</v>
@@ -3378,7 +3366,7 @@
         <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C96" s="3">
         <v>42068</v>
@@ -3398,7 +3386,7 @@
         <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C97" s="3">
         <v>42074</v>
@@ -3420,7 +3408,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C98" s="3">
         <v>42074</v>
@@ -3440,7 +3428,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C99" s="3">
         <v>42088</v>
@@ -3460,7 +3448,7 @@
         <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C100" s="3">
         <v>42088</v>
@@ -3480,7 +3468,7 @@
         <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C101" s="3">
         <v>42081</v>
@@ -3500,7 +3488,7 @@
         <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3">
         <v>42075</v>
@@ -3520,7 +3508,7 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C103" s="3">
         <v>42075</v>
@@ -3540,7 +3528,7 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C104" s="3">
         <v>42075</v>
@@ -3560,7 +3548,7 @@
         <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C105" s="3">
         <v>42075</v>
@@ -3580,7 +3568,7 @@
         <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C106" s="3">
         <v>42081</v>
@@ -3602,7 +3590,7 @@
         <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C107" s="3">
         <v>42075</v>
@@ -3624,7 +3612,7 @@
         <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C108" s="3">
         <v>42081</v>
@@ -3644,7 +3632,7 @@
         <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C109" s="3">
         <v>42075</v>
@@ -3664,7 +3652,7 @@
         <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C110" s="3">
         <v>42074</v>
@@ -3684,7 +3672,7 @@
         <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C111" s="3">
         <v>42088</v>
@@ -3704,7 +3692,7 @@
         <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C112" s="3">
         <v>42088</v>
@@ -3724,7 +3712,7 @@
         <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C113" s="3">
         <v>42081</v>
@@ -3744,7 +3732,7 @@
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C114" s="3">
         <v>42081</v>
@@ -3764,7 +3752,7 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C115" s="3">
         <v>42082</v>
@@ -3784,7 +3772,7 @@
         <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C116" s="3">
         <v>42082</v>
@@ -3804,7 +3792,7 @@
         <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C117" s="3">
         <v>42089</v>
@@ -3824,7 +3812,7 @@
         <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C118" s="3">
         <v>42088</v>
@@ -3844,7 +3832,7 @@
         <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C119" s="3">
         <v>42089</v>
@@ -3864,7 +3852,7 @@
         <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C120" s="3">
         <v>42103</v>
@@ -3884,7 +3872,7 @@
         <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C121" s="3">
         <v>42089</v>
@@ -3904,7 +3892,7 @@
         <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C122" s="3">
         <v>42096</v>
@@ -3924,7 +3912,7 @@
         <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C123" s="3">
         <v>42095</v>
@@ -3946,7 +3934,7 @@
         <v>145</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C124" s="3">
         <v>42089</v>
@@ -3966,7 +3954,7 @@
         <v>146</v>
       </c>
       <c r="B125" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C125" s="3">
         <v>42095</v>
@@ -3986,7 +3974,7 @@
         <v>147</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C126" s="3">
         <v>42102</v>
@@ -4006,7 +3994,7 @@
         <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C127" s="3">
         <v>42102</v>
@@ -4026,7 +4014,7 @@
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C128" s="3">
         <v>42095</v>
@@ -4046,7 +4034,7 @@
         <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C129" s="3">
         <v>42102</v>
@@ -4066,7 +4054,7 @@
         <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C130" s="3">
         <v>42095</v>
@@ -4086,7 +4074,7 @@
         <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C131" s="3">
         <v>42102</v>
@@ -4106,7 +4094,7 @@
         <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C132" s="3">
         <v>42109</v>
@@ -4126,7 +4114,7 @@
         <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C133" s="3">
         <v>42102</v>
@@ -4146,7 +4134,7 @@
         <v>155</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C134" s="3">
         <v>42103</v>
@@ -4166,7 +4154,7 @@
         <v>156</v>
       </c>
       <c r="B135" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C135" s="3">
         <v>42103</v>
@@ -4186,7 +4174,7 @@
         <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C136" s="3">
         <v>42103</v>
@@ -4206,7 +4194,7 @@
         <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C137" s="3">
         <v>42109</v>
@@ -4226,7 +4214,7 @@
         <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C138" s="3">
         <v>42109</v>
@@ -4246,7 +4234,7 @@
         <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C139" s="3">
         <v>42117</v>
@@ -4266,7 +4254,7 @@
         <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C140" s="3">
         <v>42109</v>
@@ -4288,7 +4276,7 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C141" s="3">
         <v>42116</v>
@@ -4308,7 +4296,7 @@
         <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C142" s="3">
         <v>42123</v>
@@ -4328,7 +4316,7 @@
         <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C143" s="3">
         <v>42110</v>
@@ -4348,7 +4336,7 @@
         <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C144" s="3">
         <v>42110</v>
@@ -4368,7 +4356,7 @@
         <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C145" s="3">
         <v>42116</v>
@@ -4388,7 +4376,7 @@
         <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C146" s="3">
         <v>42110</v>
@@ -4408,7 +4396,7 @@
         <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C147" s="3">
         <v>42110</v>
@@ -4428,7 +4416,7 @@
         <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C148" s="3">
         <v>42110</v>
@@ -4448,7 +4436,7 @@
         <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C149" s="3">
         <v>42116</v>
@@ -4468,7 +4456,7 @@
         <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C150" s="3">
         <v>42117</v>
@@ -4488,7 +4476,7 @@
         <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C151" s="3">
         <v>42117</v>
@@ -4510,7 +4498,7 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C152" s="3">
         <v>42117</v>
@@ -4530,7 +4518,7 @@
         <v>174</v>
       </c>
       <c r="B153" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C153" s="3">
         <v>42124</v>
@@ -4550,7 +4538,7 @@
         <v>175</v>
       </c>
       <c r="B154" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C154" s="3">
         <v>42124</v>
@@ -4570,7 +4558,7 @@
         <v>176</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C155" s="3">
         <v>42117</v>
@@ -4590,7 +4578,7 @@
         <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C156" s="3">
         <v>42123</v>
@@ -4612,7 +4600,7 @@
         <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C157" s="3">
         <v>42123</v>
@@ -4632,7 +4620,7 @@
         <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C158" s="3">
         <v>42124</v>
@@ -4652,7 +4640,7 @@
         <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C159" s="3">
         <v>42136</v>
@@ -4672,7 +4660,7 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C160" s="3">
         <v>42123</v>
@@ -4692,7 +4680,7 @@
         <v>182</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C161" s="3">
         <v>42123</v>
@@ -4712,7 +4700,7 @@
         <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C162" s="3">
         <v>42136</v>
@@ -4732,7 +4720,7 @@
         <v>184</v>
       </c>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C163" s="3">
         <v>42129</v>
@@ -4752,7 +4740,7 @@
         <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C164" s="3">
         <v>42129</v>
@@ -4772,7 +4760,7 @@
         <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C165" s="3">
         <v>42129</v>
@@ -4792,7 +4780,7 @@
         <v>187</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C166" s="3">
         <v>42131</v>
@@ -4812,7 +4800,7 @@
         <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C167" s="3">
         <v>42129</v>
@@ -4832,7 +4820,7 @@
         <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C168" s="3">
         <v>42131</v>
@@ -4852,7 +4840,7 @@
         <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C169" s="3">
         <v>42137</v>
@@ -4874,7 +4862,7 @@
         <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C170" s="3">
         <v>42151</v>
@@ -4894,7 +4882,7 @@
         <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C171" s="3">
         <v>42136</v>
@@ -4914,7 +4902,7 @@
         <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C172" s="3">
         <v>42131</v>
@@ -4934,7 +4922,7 @@
         <v>194</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C173" s="3">
         <v>42136</v>
@@ -4954,7 +4942,7 @@
         <v>195</v>
       </c>
       <c r="B174" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C174" s="3">
         <v>42136</v>
@@ -4976,7 +4964,7 @@
         <v>196</v>
       </c>
       <c r="B175" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C175" s="3">
         <v>42138</v>
@@ -4998,7 +4986,7 @@
         <v>197</v>
       </c>
       <c r="B176" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C176" s="3">
         <v>42145</v>
@@ -5018,7 +5006,7 @@
         <v>198</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C177" s="3">
         <v>42138</v>
@@ -5038,7 +5026,7 @@
         <v>199</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C178" s="3">
         <v>42138</v>
@@ -5060,7 +5048,7 @@
         <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C179" s="3">
         <v>42145</v>
@@ -5080,7 +5068,7 @@
         <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C180" s="3">
         <v>42143</v>
@@ -5100,7 +5088,7 @@
         <v>202</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C181" s="3">
         <v>42143</v>
@@ -5120,7 +5108,7 @@
         <v>204</v>
       </c>
       <c r="B182" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C182" s="3">
         <v>42144</v>
@@ -5142,7 +5130,7 @@
         <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C183" s="3">
         <v>42151</v>
@@ -5162,7 +5150,7 @@
         <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C184" s="3">
         <v>42144</v>
@@ -5182,7 +5170,7 @@
         <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C185" s="3">
         <v>42151</v>
@@ -5202,7 +5190,7 @@
         <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C186" s="3">
         <v>42151</v>
@@ -5222,7 +5210,7 @@
         <v>210</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C187" s="3">
         <v>42151</v>
@@ -5242,7 +5230,7 @@
         <v>211</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C188" s="3">
         <v>42397</v>
@@ -5262,7 +5250,7 @@
         <v>212</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C189" s="3">
         <v>42145</v>
@@ -5282,7 +5270,7 @@
         <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C190" s="3">
         <v>42152</v>
@@ -5302,7 +5290,7 @@
         <v>214</v>
       </c>
       <c r="B191" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C191" s="3">
         <v>42381</v>
@@ -5322,7 +5310,7 @@
         <v>215</v>
       </c>
       <c r="B192" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C192" s="3">
         <v>42152</v>
@@ -5342,7 +5330,7 @@
         <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C193" s="3">
         <v>42152</v>
@@ -5362,7 +5350,7 @@
         <v>218</v>
       </c>
       <c r="B194" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C194" s="3">
         <v>42152</v>
@@ -5382,7 +5370,7 @@
         <v>219</v>
       </c>
       <c r="B195" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C195" s="3">
         <v>42306</v>
@@ -5402,7 +5390,7 @@
         <v>223</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C196" s="3">
         <v>42339</v>
@@ -5422,7 +5410,7 @@
         <v>225</v>
       </c>
       <c r="B197" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C197" s="3">
         <v>42348</v>
@@ -5442,7 +5430,7 @@
         <v>226</v>
       </c>
       <c r="B198" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C198" s="3">
         <v>42381</v>
@@ -5462,7 +5450,7 @@
         <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C199" s="3">
         <v>42381</v>
@@ -5482,7 +5470,7 @@
         <v>229</v>
       </c>
       <c r="B200" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C200" s="3">
         <v>42395</v>
@@ -5504,7 +5492,7 @@
         <v>231</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C201" s="3">
         <v>42397</v>
@@ -5526,7 +5514,7 @@
         <v>232</v>
       </c>
       <c r="B202" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C202" s="3">
         <v>42404</v>
@@ -5546,7 +5534,7 @@
         <v>233</v>
       </c>
       <c r="B203" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C203" s="3">
         <v>42425</v>
@@ -5577,36 +5565,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5614,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1">
         <v>42131</v>
@@ -5632,7 +5620,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="0">D3-C3</f>
@@ -5644,7 +5632,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -5656,7 +5644,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1">
         <v>42138</v>
@@ -5674,7 +5662,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -5686,7 +5674,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -5698,7 +5686,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1">
         <v>42109</v>
@@ -5716,7 +5704,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1">
         <v>42089</v>
@@ -5734,7 +5722,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1">
         <v>42081</v>
@@ -5752,7 +5740,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1">
         <v>42074</v>
@@ -5770,7 +5758,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1">
         <v>42102</v>
@@ -5779,7 +5767,7 @@
         <v>42116</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -5791,7 +5779,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -5803,7 +5791,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -5815,7 +5803,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1">
         <v>42117</v>
@@ -5836,7 +5824,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -5848,7 +5836,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1">
         <v>42116</v>
@@ -5866,7 +5854,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1">
         <v>42124</v>
@@ -5884,7 +5872,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1">
         <v>42117</v>
@@ -5902,7 +5890,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -5914,7 +5902,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1">
         <v>42123</v>
@@ -5932,7 +5920,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1">
         <v>42123</v>
@@ -5950,7 +5938,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C23" s="1">
         <v>42116</v>
@@ -5968,7 +5956,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1">
         <v>42123</v>
@@ -5986,7 +5974,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1">
         <v>42123</v>
@@ -6004,7 +5992,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1">
         <v>42151</v>
@@ -6022,7 +6010,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1">
         <v>42138</v>
@@ -6040,7 +6028,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1">
         <v>42116</v>
@@ -6058,7 +6046,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C29" s="1">
         <v>42116</v>
@@ -6076,7 +6064,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -6088,7 +6076,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1">
         <v>42139</v>
@@ -6106,7 +6094,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C32" s="1">
         <v>42152</v>
@@ -6124,7 +6112,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1">
         <v>42110</v>
@@ -6142,7 +6130,7 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C34" s="1">
         <v>42110</v>
@@ -6160,7 +6148,7 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C35" s="1">
         <v>42138</v>
@@ -6172,7 +6160,7 @@
         <v>42145</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -6184,7 +6172,7 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C36" s="1">
         <v>42138</v>
@@ -6202,7 +6190,7 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1">
         <v>42116</v>
@@ -6220,7 +6208,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C38" s="1">
         <v>42116</v>
@@ -6238,7 +6226,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C39" s="1">
         <v>42152</v>
@@ -6256,7 +6244,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
@@ -6268,7 +6256,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1">
         <v>42145</v>
@@ -6286,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C42" s="1">
         <v>42110</v>
@@ -6304,7 +6292,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1">
         <v>42138</v>
@@ -6322,7 +6310,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1">
         <v>42123</v>
@@ -6340,7 +6328,7 @@
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1">
         <v>42116</v>
@@ -6358,7 +6346,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1">
         <v>42124</v>
@@ -6376,7 +6364,7 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C47" s="1">
         <v>42117</v>
@@ -6394,7 +6382,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C48" s="1">
         <v>42123</v>
@@ -6406,7 +6394,7 @@
         <v>42131</v>
       </c>
       <c r="G48" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -6418,7 +6406,7 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C49" s="1">
         <v>42124</v>
@@ -6436,7 +6424,7 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C50" s="1">
         <v>42138</v>
@@ -6454,7 +6442,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C51" s="1">
         <v>42151</v>
@@ -6472,7 +6460,7 @@
         <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C52" s="1">
         <v>42152</v>
@@ -6490,7 +6478,7 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C53" s="1">
         <v>42152</v>
@@ -6508,7 +6496,7 @@
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C54" s="1">
         <v>42123</v>
@@ -6526,7 +6514,7 @@
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C55" s="1">
         <v>42130</v>
@@ -6544,7 +6532,7 @@
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C56" s="1">
         <v>42151</v>
@@ -6562,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
@@ -6574,7 +6562,7 @@
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1">
         <v>42137</v>
@@ -6592,7 +6580,7 @@
         <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C59" s="1">
         <v>42145</v>
@@ -6610,7 +6598,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C60" s="1">
         <v>42124</v>
@@ -6628,7 +6616,7 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C61" s="1">
         <v>42116</v>
@@ -6646,7 +6634,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C62" s="1">
         <v>42271</v>
@@ -6664,7 +6652,7 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1">
         <v>42124</v>
@@ -6682,7 +6670,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
@@ -6694,7 +6682,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1">
         <v>42151</v>
@@ -6712,7 +6700,7 @@
         <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C66" s="1">
         <v>42151</v>
@@ -6730,7 +6718,7 @@
         <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1">
         <v>42145</v>
@@ -6748,7 +6736,7 @@
         <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C68" s="1">
         <v>42144</v>
@@ -6766,7 +6754,7 @@
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1">
         <v>42290</v>
@@ -6784,7 +6772,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C70" s="1">
         <v>42151</v>
@@ -6802,7 +6790,7 @@
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C71" s="1">
         <v>42248</v>
@@ -6820,7 +6808,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
@@ -6832,7 +6820,7 @@
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C73" s="1">
         <v>42348</v>
@@ -6850,7 +6838,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C74" s="1">
         <v>42255</v>
@@ -6868,7 +6856,7 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C75" s="1">
         <v>42257</v>
@@ -6886,7 +6874,7 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C76" s="1">
         <v>42262</v>
@@ -6904,7 +6892,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C77" s="1">
         <v>42276</v>
@@ -6922,7 +6910,7 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
@@ -6934,7 +6922,7 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C79" s="1">
         <v>42248</v>
@@ -6952,7 +6940,7 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C80" s="1">
         <v>42292</v>
@@ -6970,7 +6958,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C81" s="1">
         <v>42248</v>
@@ -6988,7 +6976,7 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C82" s="1">
         <v>42264</v>
@@ -7006,7 +6994,7 @@
         <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C83" s="1">
         <v>42257</v>
@@ -7024,7 +7012,7 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C84" s="1">
         <v>42248</v>
@@ -7042,7 +7030,7 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C85" s="1">
         <v>42248</v>
@@ -7060,7 +7048,7 @@
         <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C86" s="1">
         <v>42248</v>
@@ -7078,7 +7066,7 @@
         <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C87" s="1">
         <v>42292</v>
@@ -7096,7 +7084,7 @@
         <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
@@ -7108,7 +7096,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C89" s="1">
         <v>42250</v>
@@ -7126,7 +7114,7 @@
         <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C90" s="1">
         <v>42250</v>
@@ -7144,7 +7132,7 @@
         <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C91" s="1">
         <v>42255</v>
@@ -7156,7 +7144,7 @@
         <v>42262</v>
       </c>
       <c r="G91" t="s">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
@@ -7168,7 +7156,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C92" s="1">
         <v>42248</v>
@@ -7186,7 +7174,7 @@
         <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C93" s="1">
         <v>42346</v>
@@ -7204,7 +7192,7 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
@@ -7216,7 +7204,7 @@
         <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C95" s="1">
         <v>42292</v>
@@ -7234,7 +7222,7 @@
         <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C96" s="1">
         <v>42276</v>
@@ -7252,7 +7240,7 @@
         <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C97" s="1">
         <v>42250</v>
@@ -7264,7 +7252,7 @@
         <v>42257</v>
       </c>
       <c r="G97" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
@@ -7276,7 +7264,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C98" s="1">
         <v>42292</v>
@@ -7294,7 +7282,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C99" s="1">
         <v>42250</v>
@@ -7312,7 +7300,7 @@
         <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C100" s="1">
         <v>42255</v>
@@ -7330,7 +7318,7 @@
         <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C101" s="1">
         <v>42341</v>
@@ -7348,7 +7336,7 @@
         <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C102" s="1">
         <v>42388</v>
@@ -7366,7 +7354,7 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C103" s="1">
         <v>42292</v>
@@ -7384,7 +7372,7 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
@@ -7396,7 +7384,7 @@
         <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C105" s="1">
         <v>42299</v>
@@ -7414,7 +7402,7 @@
         <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C106" s="1">
         <v>42278</v>
@@ -7432,7 +7420,7 @@
         <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C107" s="1">
         <v>42292</v>
@@ -7450,7 +7438,7 @@
         <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C108" s="1">
         <v>42271</v>
@@ -7468,7 +7456,7 @@
         <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C109" s="1">
         <v>42292</v>
@@ -7486,7 +7474,7 @@
         <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C110" s="1">
         <v>42299</v>
@@ -7504,7 +7492,7 @@
         <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
@@ -7516,7 +7504,7 @@
         <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C112" s="1">
         <v>42262</v>
@@ -7534,7 +7522,7 @@
         <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C113" s="1">
         <v>42250</v>
@@ -7552,7 +7540,7 @@
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C114" s="1">
         <v>42390</v>
@@ -7570,7 +7558,7 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C115" s="1">
         <v>42255</v>
@@ -7588,7 +7576,7 @@
         <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C116" s="1">
         <v>42250</v>
@@ -7606,7 +7594,7 @@
         <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C117" s="1">
         <v>42283</v>
@@ -7624,7 +7612,7 @@
         <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C118" s="1">
         <v>42278</v>
@@ -7642,7 +7630,7 @@
         <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C119" s="1">
         <v>42276</v>
@@ -7660,7 +7648,7 @@
         <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
@@ -7672,7 +7660,7 @@
         <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C121" s="1">
         <v>42250</v>
@@ -7690,7 +7678,7 @@
         <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C122" s="1">
         <v>42325</v>
@@ -7702,7 +7690,7 @@
         <v>42332</v>
       </c>
       <c r="G122" t="s">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
@@ -7714,7 +7702,7 @@
         <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="C123" s="1">
         <v>42285</v>
@@ -7725,7 +7713,7 @@
         <v>145</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C124" s="1">
         <v>42262</v>
@@ -7743,7 +7731,7 @@
         <v>146</v>
       </c>
       <c r="B125" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C125" s="1">
         <v>42271</v>
@@ -7761,7 +7749,7 @@
         <v>147</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C126" s="1">
         <v>42383</v>
@@ -7779,7 +7767,7 @@
         <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
@@ -7791,7 +7779,7 @@
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C128" s="1">
         <v>42271</v>
@@ -7809,7 +7797,7 @@
         <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C129" s="1">
         <v>42262</v>
@@ -7827,7 +7815,7 @@
         <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C130" s="1">
         <v>42262</v>
@@ -7845,7 +7833,7 @@
         <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C131" s="1">
         <v>42276</v>
@@ -7863,7 +7851,7 @@
         <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
@@ -7875,7 +7863,7 @@
         <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C133" s="1">
         <v>42278</v>
@@ -7893,7 +7881,7 @@
         <v>155</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C134" s="1">
         <v>42257</v>
@@ -7911,7 +7899,7 @@
         <v>156</v>
       </c>
       <c r="B135" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C135" s="1">
         <v>42269</v>
@@ -7929,7 +7917,7 @@
         <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C136" s="1">
         <v>42341</v>
@@ -7947,7 +7935,7 @@
         <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C137" s="1">
         <v>42276</v>
@@ -7965,7 +7953,7 @@
         <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C138" s="1">
         <v>42318</v>
@@ -7983,7 +7971,7 @@
         <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C139" s="1">
         <v>42264</v>
@@ -8001,7 +7989,7 @@
         <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C140" s="1">
         <v>42257</v>
@@ -8019,7 +8007,7 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C141" s="1">
         <v>42269</v>
@@ -8037,7 +8025,7 @@
         <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C142" s="1">
         <v>42255</v>
@@ -8055,7 +8043,7 @@
         <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
@@ -8067,7 +8055,7 @@
         <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C144" s="1">
         <v>42339</v>
@@ -8085,7 +8073,7 @@
         <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
@@ -8097,7 +8085,7 @@
         <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C146" s="1">
         <v>42311</v>
@@ -8115,7 +8103,7 @@
         <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C147" s="1">
         <v>42297</v>
@@ -8133,7 +8121,7 @@
         <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C148" s="1">
         <v>42255</v>
@@ -8151,7 +8139,7 @@
         <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C149" s="1">
         <v>42297</v>
@@ -8169,7 +8157,7 @@
         <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C150" s="1">
         <v>42269</v>
@@ -8187,7 +8175,7 @@
         <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C151" s="1">
         <v>42257</v>
@@ -8205,7 +8193,7 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C152" s="1">
         <v>42257</v>
@@ -8223,7 +8211,7 @@
         <v>174</v>
       </c>
       <c r="B153" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C153" s="1">
         <v>42255</v>
@@ -8241,7 +8229,7 @@
         <v>175</v>
       </c>
       <c r="B154" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C154" s="1">
         <v>42257</v>
@@ -8259,7 +8247,7 @@
         <v>176</v>
       </c>
       <c r="B155" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
@@ -8271,7 +8259,7 @@
         <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C156" s="1">
         <v>42318</v>
@@ -8289,7 +8277,7 @@
         <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C157" s="1">
         <v>42255</v>
@@ -8307,7 +8295,7 @@
         <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C158" s="1">
         <v>42269</v>
@@ -8325,7 +8313,7 @@
         <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C159" s="1">
         <v>42306</v>
@@ -8343,7 +8331,7 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
@@ -8355,7 +8343,7 @@
         <v>182</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
@@ -8367,7 +8355,7 @@
         <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C162" s="1">
         <v>42299</v>
@@ -8385,7 +8373,7 @@
         <v>184</v>
       </c>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C163" s="1">
         <v>42299</v>
@@ -8403,7 +8391,7 @@
         <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C164" s="1">
         <v>42306</v>
@@ -8421,7 +8409,7 @@
         <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C165" s="1">
         <v>42306</v>
@@ -8439,7 +8427,7 @@
         <v>187</v>
       </c>
       <c r="B166" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
@@ -8451,7 +8439,7 @@
         <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C167" s="1">
         <v>42313</v>
@@ -8469,7 +8457,7 @@
         <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C168" s="1">
         <v>42381</v>
@@ -8487,7 +8475,7 @@
         <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C169" s="1">
         <v>42290</v>
@@ -8505,7 +8493,7 @@
         <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
@@ -8517,7 +8505,7 @@
         <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C171" s="1">
         <v>42348</v>
@@ -8535,7 +8523,7 @@
         <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C172" s="1">
         <v>42299</v>
@@ -8553,7 +8541,7 @@
         <v>194</v>
       </c>
       <c r="B173" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
@@ -8565,7 +8553,7 @@
         <v>195</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
@@ -8577,7 +8565,7 @@
         <v>196</v>
       </c>
       <c r="B175" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C175" s="1">
         <v>42339</v>
@@ -8595,7 +8583,7 @@
         <v>197</v>
       </c>
       <c r="B176" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C176" s="1">
         <v>42304</v>
@@ -8613,7 +8601,7 @@
         <v>198</v>
       </c>
       <c r="B177" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
@@ -8625,7 +8613,7 @@
         <v>199</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C178" s="1">
         <v>42348</v>
@@ -8643,7 +8631,7 @@
         <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
@@ -8655,7 +8643,7 @@
         <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C180" s="1">
         <v>42299</v>
@@ -8668,7 +8656,7 @@
       </c>
       <c r="F180" s="1"/>
       <c r="G180" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
@@ -8680,7 +8668,7 @@
         <v>202</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C181" s="1">
         <v>42341</v>
@@ -8698,7 +8686,7 @@
         <v>204</v>
       </c>
       <c r="B182" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C182" s="1">
         <v>42304</v>
@@ -8716,7 +8704,7 @@
         <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
@@ -8728,7 +8716,7 @@
         <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
@@ -8740,7 +8728,7 @@
         <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
@@ -8752,7 +8740,7 @@
         <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C186" s="1">
         <v>42325</v>
@@ -8770,7 +8758,7 @@
         <v>210</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C187" s="1">
         <v>42346</v>
@@ -8788,7 +8776,7 @@
         <v>211</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C188" s="1">
         <v>42503</v>
@@ -8801,7 +8789,7 @@
       </c>
       <c r="F188" s="1"/>
       <c r="G188" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
@@ -8813,7 +8801,7 @@
         <v>212</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C189" s="1">
         <v>42320</v>
@@ -8831,7 +8819,7 @@
         <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C190" s="1">
         <v>42283</v>
@@ -8849,7 +8837,7 @@
         <v>214</v>
       </c>
       <c r="B191" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C191" s="1">
         <v>42514</v>
@@ -8867,7 +8855,7 @@
         <v>215</v>
       </c>
       <c r="B192" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C192" s="1">
         <v>42304</v>
@@ -8885,7 +8873,7 @@
         <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C193" s="1">
         <v>42283</v>
@@ -8903,7 +8891,7 @@
         <v>218</v>
       </c>
       <c r="B194" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C194" s="1">
         <v>42283</v>
@@ -8921,7 +8909,7 @@
         <v>219</v>
       </c>
       <c r="B195" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C195" s="1">
         <v>42467</v>
@@ -8939,7 +8927,7 @@
         <v>223</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C196" s="1">
         <v>42500</v>
@@ -8957,7 +8945,7 @@
         <v>225</v>
       </c>
       <c r="B197" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C197" s="1">
         <v>42488</v>
@@ -8969,7 +8957,7 @@
         <v>42495</v>
       </c>
       <c r="G197" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
@@ -8981,7 +8969,7 @@
         <v>226</v>
       </c>
       <c r="B198" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C198" s="1">
         <v>42509</v>
@@ -8999,7 +8987,7 @@
         <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C199" s="1">
         <v>42479</v>
@@ -9017,7 +9005,7 @@
         <v>229</v>
       </c>
       <c r="B200" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C200" s="1">
         <v>42493</v>
@@ -9035,7 +9023,7 @@
         <v>231</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C201" s="1">
         <v>42501</v>
@@ -9047,7 +9035,7 @@
         <v>42506</v>
       </c>
       <c r="G201" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="H201">
         <f t="shared" si="3"/>
@@ -9059,7 +9047,7 @@
         <v>232</v>
       </c>
       <c r="B202" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C202" s="1">
         <v>42514</v>
@@ -9077,7 +9065,7 @@
         <v>233</v>
       </c>
       <c r="B203" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C203" s="1">
         <v>42500</v>
@@ -9100,18 +9088,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="123.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9128,10 +9116,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9139,7 +9127,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -9153,7 +9141,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -9167,7 +9155,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -9181,83 +9169,83 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9265,13 +9253,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9279,13 +9267,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9293,10 +9281,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -9307,1502 +9295,1502 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>265</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="F61" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>305</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="F85" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="D86" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="F90" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
         <v>45</v>
@@ -10813,19 +10801,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -10836,16 +10824,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="F93" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -10856,16 +10844,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="D94" t="s">
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -10876,16 +10864,16 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="D95" t="s">
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="F95" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -10896,16 +10884,16 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -10916,7 +10904,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
         <v>49</v>
@@ -10925,7 +10913,7 @@
         <v>55</v>
       </c>
       <c r="F97" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -10936,16 +10924,16 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="F98" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -10956,16 +10944,16 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="F99" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -10976,7 +10964,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
         <v>49</v>
@@ -10985,7 +10973,7 @@
         <v>57</v>
       </c>
       <c r="F100" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -10996,7 +10984,7 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
         <v>49</v>
@@ -11005,7 +10993,7 @@
         <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -11021,17 +11009,17 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11048,10 +11036,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11059,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -11073,7 +11061,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -11087,7 +11075,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -11101,13 +11089,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11115,13 +11103,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11129,13 +11117,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,13 +11131,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11157,27 +11145,27 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11185,10 +11173,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -11202,10 +11190,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -11219,10 +11207,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -11239,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -11248,7 +11236,7 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11259,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -11268,7 +11256,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11279,7 +11267,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -11288,7 +11276,7 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11299,7 +11287,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -11308,7 +11296,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11319,7 +11307,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -11328,7 +11316,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11339,7 +11327,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -11348,7 +11336,7 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11359,7 +11347,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -11368,7 +11356,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11379,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -11388,7 +11376,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11399,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -11408,7 +11396,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11419,7 +11407,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -11428,7 +11416,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11439,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -11448,7 +11436,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11459,7 +11447,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -11468,7 +11456,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11479,7 +11467,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -11488,7 +11476,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11499,7 +11487,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
@@ -11508,7 +11496,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11519,7 +11507,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -11528,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11536,10 +11524,10 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -11553,10 +11541,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
@@ -11573,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -11582,7 +11570,7 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11593,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
@@ -11602,7 +11590,7 @@
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11613,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -11622,7 +11610,7 @@
         <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11633,7 +11621,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
@@ -11642,7 +11630,7 @@
         <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11653,7 +11641,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -11662,7 +11650,7 @@
         <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11673,7 +11661,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>331</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
@@ -11682,7 +11670,7 @@
         <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11693,7 +11681,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -11702,7 +11690,7 @@
         <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11713,7 +11701,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="D38" t="s">
         <v>49</v>
@@ -11722,7 +11710,7 @@
         <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/MATCH/EMA/backend/match_ema_keys.xlsx
+++ b/MATCH/EMA/backend/match_ema_keys.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,10 +14,11 @@
   <sheets>
     <sheet name="W1" sheetId="3" r:id="rId1"/>
     <sheet name="W2" sheetId="5" r:id="rId2"/>
-    <sheet name="mother" sheetId="2" r:id="rId3"/>
-    <sheet name="child" sheetId="1" r:id="rId4"/>
+    <sheet name="W3" sheetId="6" r:id="rId3"/>
+    <sheet name="mother" sheetId="2" r:id="rId4"/>
+    <sheet name="child" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="338">
   <si>
     <t>question</t>
   </si>
@@ -1029,6 +1030,18 @@
   </si>
   <si>
     <t>Rules_carMeal</t>
+  </si>
+  <si>
+    <t>w3pu</t>
+  </si>
+  <si>
+    <t>w3_start</t>
+  </si>
+  <si>
+    <t>w3_end</t>
+  </si>
+  <si>
+    <t>w3do</t>
   </si>
 </sst>
 </file>
@@ -1420,13 +1433,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5560,15 +5573,15 @@
   <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9086,20 +9099,2902 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42325</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42325</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42332</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42290</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42290</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42297</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42290</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42290</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42297</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42346</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42353</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42325</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42325</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42332</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42297</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42297</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42304</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42299</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42299</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42306</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42320</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42320</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42327</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42297</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42297</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42304</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42346</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42353</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42320</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42320</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42327</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42383</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42383</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42390</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42346</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42353</v>
+      </c>
+      <c r="E32" s="1">
+        <v>42353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42297</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42297</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42304</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42327</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42327</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42334</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42348</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42348</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42355</v>
+      </c>
+      <c r="E37" s="1">
+        <v>42355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42297</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42297</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42304</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42341</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42341</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42348</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>61</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42341</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42341</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42348</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C46" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E46" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C47" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42320</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42320</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42327</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>71</v>
+      </c>
+      <c r="B51" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42346</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42353</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>72</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42325</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42325</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42332</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>73</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42325</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42325</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42332</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>74</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42397</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42397</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42404</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>76</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E56" s="1">
+        <v>42325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>78</v>
+      </c>
+      <c r="B58" s="1">
+        <v>42339</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42339</v>
+      </c>
+      <c r="D58" s="1">
+        <v>42346</v>
+      </c>
+      <c r="E58" s="1">
+        <v>42346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42311</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42311</v>
+      </c>
+      <c r="D59" s="1">
+        <v>42318</v>
+      </c>
+      <c r="E59" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>80</v>
+      </c>
+      <c r="B60" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>81</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42297</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42297</v>
+      </c>
+      <c r="D61" s="1">
+        <v>42304</v>
+      </c>
+      <c r="E61" s="1">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>82</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42418</v>
+      </c>
+      <c r="D62" s="1">
+        <v>42425</v>
+      </c>
+      <c r="E62" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>83</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D63" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E63" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>85</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42346</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42353</v>
+      </c>
+      <c r="E65" s="1">
+        <v>42353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>86</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42341</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42341</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42348</v>
+      </c>
+      <c r="E66" s="1">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>87</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42304</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42311</v>
+      </c>
+      <c r="E67" s="1">
+        <v>42311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42318</v>
+      </c>
+      <c r="D68" s="1">
+        <v>42325</v>
+      </c>
+      <c r="E68" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>89</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42479</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D69" s="1">
+        <v>42486</v>
+      </c>
+      <c r="E69" s="1">
+        <v>42486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42341</v>
+      </c>
+      <c r="C70" s="1">
+        <v>42341</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42348</v>
+      </c>
+      <c r="E70" s="1">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>91</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E71" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>93</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42479</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42486</v>
+      </c>
+      <c r="E73" s="1">
+        <v>42487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>94</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42465</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42465</v>
+      </c>
+      <c r="D74" s="1">
+        <v>42472</v>
+      </c>
+      <c r="E74" s="1">
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>95</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42458</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42458</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42465</v>
+      </c>
+      <c r="E75" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E76" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>97</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42451</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42451</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42458</v>
+      </c>
+      <c r="E77" s="1">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>100</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42486</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D80" s="1">
+        <v>42493</v>
+      </c>
+      <c r="E80" s="1">
+        <v>42503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>101</v>
+      </c>
+      <c r="B81" s="1">
+        <v>42402</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42402</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42409</v>
+      </c>
+      <c r="E81" s="1">
+        <v>42409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>102</v>
+      </c>
+      <c r="B82" s="1">
+        <v>42425</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42425</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42432</v>
+      </c>
+      <c r="E82" s="1">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>103</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42418</v>
+      </c>
+      <c r="D83" s="1">
+        <v>42425</v>
+      </c>
+      <c r="E83" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>104</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42404</v>
+      </c>
+      <c r="C84" s="1">
+        <v>42404</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42411</v>
+      </c>
+      <c r="E84" s="1">
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>105</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42404</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42404</v>
+      </c>
+      <c r="D85" s="1">
+        <v>42411</v>
+      </c>
+      <c r="E85" s="1">
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>106</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42465</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42465</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42472</v>
+      </c>
+      <c r="E86" s="1">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>107</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42467</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E87" s="1">
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>109</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42411</v>
+      </c>
+      <c r="C89" s="1">
+        <v>42411</v>
+      </c>
+      <c r="D89" s="1">
+        <v>42418</v>
+      </c>
+      <c r="E89" s="1">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>110</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42418</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42425</v>
+      </c>
+      <c r="E90" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>111</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42418</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42425</v>
+      </c>
+      <c r="E91" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>112</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42409</v>
+      </c>
+      <c r="C92" s="1">
+        <v>42409</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42416</v>
+      </c>
+      <c r="E92" s="1">
+        <v>42416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>113</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42506</v>
+      </c>
+      <c r="C93" s="1">
+        <v>42507</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42514</v>
+      </c>
+      <c r="E93" s="1">
+        <v>42514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>114</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42507</v>
+      </c>
+      <c r="C94" s="1">
+        <v>42507</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42514</v>
+      </c>
+      <c r="E94" s="1">
+        <v>42514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>115</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42451</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42451</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42458</v>
+      </c>
+      <c r="E95" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>116</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C96" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D96" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E96" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C97" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E97" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>118</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42451</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42451</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42458</v>
+      </c>
+      <c r="E98" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>119</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42411</v>
+      </c>
+      <c r="C99" s="1">
+        <v>42411</v>
+      </c>
+      <c r="D99" s="1">
+        <v>42418</v>
+      </c>
+      <c r="E99" s="1">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>120</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42425</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42425</v>
+      </c>
+      <c r="D100" s="1">
+        <v>42432</v>
+      </c>
+      <c r="E100" s="1">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>121</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42479</v>
+      </c>
+      <c r="C101" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D101" s="1">
+        <v>42486</v>
+      </c>
+      <c r="E101" s="1">
+        <v>42486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>123</v>
+      </c>
+      <c r="B103" s="1">
+        <v>42479</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D103" s="1">
+        <v>42486</v>
+      </c>
+      <c r="E103" s="1">
+        <v>42487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>125</v>
+      </c>
+      <c r="B105" s="1">
+        <v>42467</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E105" s="1">
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>126</v>
+      </c>
+      <c r="B106" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C106" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E106" s="1">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>127</v>
+      </c>
+      <c r="B107" s="1">
+        <v>42451</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42451</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42458</v>
+      </c>
+      <c r="E107" s="1">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>128</v>
+      </c>
+      <c r="B108" s="1">
+        <v>42486</v>
+      </c>
+      <c r="C108" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D108" s="1">
+        <v>42493</v>
+      </c>
+      <c r="E108" s="1">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>132</v>
+      </c>
+      <c r="B112" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C112" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D112" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E112" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>133</v>
+      </c>
+      <c r="B113" s="1">
+        <v>42397</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42397</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42404</v>
+      </c>
+      <c r="E113" s="1">
+        <v>42404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>134</v>
+      </c>
+      <c r="B114" s="1">
+        <v>42516</v>
+      </c>
+      <c r="C114" s="1">
+        <v>42516</v>
+      </c>
+      <c r="D114" s="1">
+        <v>42523</v>
+      </c>
+      <c r="E114" s="1">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>135</v>
+      </c>
+      <c r="B115" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C115" s="1">
+        <v>42418</v>
+      </c>
+      <c r="D115" s="1">
+        <v>42425</v>
+      </c>
+      <c r="E115" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>136</v>
+      </c>
+      <c r="B116" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C116" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D116" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>137</v>
+      </c>
+      <c r="B117" s="1">
+        <v>42472</v>
+      </c>
+      <c r="C117" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D117" s="1">
+        <v>42479</v>
+      </c>
+      <c r="E117" s="1">
+        <v>42479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>139</v>
+      </c>
+      <c r="B118" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C118" s="1">
+        <v>42418</v>
+      </c>
+      <c r="D118" s="1">
+        <v>42425</v>
+      </c>
+      <c r="E118" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>140</v>
+      </c>
+      <c r="B119" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C119" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D119" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E119" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>142</v>
+      </c>
+      <c r="B121" s="1">
+        <v>42411</v>
+      </c>
+      <c r="C121" s="1">
+        <v>42411</v>
+      </c>
+      <c r="D121" s="1">
+        <v>42418</v>
+      </c>
+      <c r="E121" s="1">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>145</v>
+      </c>
+      <c r="B124" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C124" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D124" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E124" s="1">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>146</v>
+      </c>
+      <c r="B125" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C125" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D125" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E125" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>147</v>
+      </c>
+      <c r="B126" s="1">
+        <v>42706</v>
+      </c>
+      <c r="C126" s="1">
+        <v>42710</v>
+      </c>
+      <c r="D126" s="1">
+        <v>42717</v>
+      </c>
+      <c r="E126" s="1">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>149</v>
+      </c>
+      <c r="B128" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C128" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D128" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E128" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>150</v>
+      </c>
+      <c r="B129" s="1">
+        <v>42423</v>
+      </c>
+      <c r="C129" s="1">
+        <v>42423</v>
+      </c>
+      <c r="D129" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E129" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>151</v>
+      </c>
+      <c r="B130" s="1">
+        <v>42509</v>
+      </c>
+      <c r="C130" s="1">
+        <v>42509</v>
+      </c>
+      <c r="D130" s="1">
+        <v>42516</v>
+      </c>
+      <c r="E130" s="1">
+        <v>42516</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>152</v>
+      </c>
+      <c r="B131" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C131" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D131" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E131" s="1">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>154</v>
+      </c>
+      <c r="B133" s="1">
+        <v>42507</v>
+      </c>
+      <c r="C133" s="1">
+        <v>42507</v>
+      </c>
+      <c r="D133" s="1">
+        <v>42514</v>
+      </c>
+      <c r="E133" s="1">
+        <v>42514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>155</v>
+      </c>
+      <c r="B134" s="1">
+        <v>42395</v>
+      </c>
+      <c r="C134" s="1">
+        <v>42395</v>
+      </c>
+      <c r="D134" s="1">
+        <v>42402</v>
+      </c>
+      <c r="E134" s="1">
+        <v>42402</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>156</v>
+      </c>
+      <c r="B135" s="1">
+        <v>42458</v>
+      </c>
+      <c r="C135" s="1">
+        <v>42458</v>
+      </c>
+      <c r="D135" s="1">
+        <v>42465</v>
+      </c>
+      <c r="E135" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>158</v>
+      </c>
+      <c r="B137" s="1">
+        <v>42453</v>
+      </c>
+      <c r="C137" s="1">
+        <v>42453</v>
+      </c>
+      <c r="D137" s="1">
+        <v>42460</v>
+      </c>
+      <c r="E137" s="1">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>159</v>
+      </c>
+      <c r="B138" s="1">
+        <v>42500</v>
+      </c>
+      <c r="C138" s="1">
+        <v>42500</v>
+      </c>
+      <c r="D138" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E138" s="1">
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>160</v>
+      </c>
+      <c r="B139" s="1">
+        <v>42425</v>
+      </c>
+      <c r="C139" s="1">
+        <v>42425</v>
+      </c>
+      <c r="D139" s="1">
+        <v>42432</v>
+      </c>
+      <c r="E139" s="1">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>161</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42486</v>
+      </c>
+      <c r="C140" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D140" s="1">
+        <v>42493</v>
+      </c>
+      <c r="E140" s="1">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>162</v>
+      </c>
+      <c r="B141" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C141" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D141" s="1">
+        <v>42439</v>
+      </c>
+      <c r="E141" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>163</v>
+      </c>
+      <c r="B142" s="1">
+        <v>42416</v>
+      </c>
+      <c r="C142" s="1">
+        <v>42416</v>
+      </c>
+      <c r="D142" s="1">
+        <v>42423</v>
+      </c>
+      <c r="E142" s="1">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>165</v>
+      </c>
+      <c r="B144" s="1">
+        <v>42486</v>
+      </c>
+      <c r="C144" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D144" s="1">
+        <v>42493</v>
+      </c>
+      <c r="E144" s="1">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>167</v>
+      </c>
+      <c r="B146" s="1">
+        <v>42472</v>
+      </c>
+      <c r="C146" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D146" s="1">
+        <v>42479</v>
+      </c>
+      <c r="E146" s="1">
+        <v>42479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>168</v>
+      </c>
+      <c r="B147" s="1">
+        <v>42453</v>
+      </c>
+      <c r="C147" s="1">
+        <v>42453</v>
+      </c>
+      <c r="D147" s="1">
+        <v>42460</v>
+      </c>
+      <c r="E147" s="1">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>169</v>
+      </c>
+      <c r="B148" s="1">
+        <v>42416</v>
+      </c>
+      <c r="C148" s="1">
+        <v>42416</v>
+      </c>
+      <c r="D148" s="1">
+        <v>42423</v>
+      </c>
+      <c r="E148" s="1">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>170</v>
+      </c>
+      <c r="B149" s="1">
+        <v>42458</v>
+      </c>
+      <c r="C149" s="1">
+        <v>42458</v>
+      </c>
+      <c r="D149" s="1">
+        <v>42465</v>
+      </c>
+      <c r="E149" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>171</v>
+      </c>
+      <c r="B150" s="1">
+        <v>42430</v>
+      </c>
+      <c r="C150" s="1">
+        <v>42430</v>
+      </c>
+      <c r="D150" s="1">
+        <v>42437</v>
+      </c>
+      <c r="E150" s="1">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>172</v>
+      </c>
+      <c r="B151" s="1">
+        <v>42453</v>
+      </c>
+      <c r="C151" s="1">
+        <v>42453</v>
+      </c>
+      <c r="D151" s="1">
+        <v>42460</v>
+      </c>
+      <c r="E151" s="1">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>173</v>
+      </c>
+      <c r="B152" s="1">
+        <v>42412</v>
+      </c>
+      <c r="C152" s="1">
+        <v>42416</v>
+      </c>
+      <c r="D152" s="1">
+        <v>42423</v>
+      </c>
+      <c r="E152" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>174</v>
+      </c>
+      <c r="B153" s="1">
+        <v>42416</v>
+      </c>
+      <c r="C153" s="1">
+        <v>42416</v>
+      </c>
+      <c r="D153" s="1">
+        <v>42423</v>
+      </c>
+      <c r="E153" s="1">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>177</v>
+      </c>
+      <c r="B156" s="1">
+        <v>42481</v>
+      </c>
+      <c r="C156" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D156" s="1">
+        <v>42488</v>
+      </c>
+      <c r="E156" s="1">
+        <v>42502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>178</v>
+      </c>
+      <c r="B157" s="1">
+        <v>42416</v>
+      </c>
+      <c r="C157" s="1">
+        <v>42416</v>
+      </c>
+      <c r="D157" s="1">
+        <v>42423</v>
+      </c>
+      <c r="E157" s="1">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>180</v>
+      </c>
+      <c r="B159" s="1">
+        <v>42474</v>
+      </c>
+      <c r="C159" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D159" s="1">
+        <v>42481</v>
+      </c>
+      <c r="E159" s="1">
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>183</v>
+      </c>
+      <c r="B162" s="1">
+        <v>42467</v>
+      </c>
+      <c r="C162" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D162" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E162" s="1">
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>184</v>
+      </c>
+      <c r="B163" s="1">
+        <v>42488</v>
+      </c>
+      <c r="C163" s="1">
+        <v>42488</v>
+      </c>
+      <c r="D163" s="1">
+        <v>42495</v>
+      </c>
+      <c r="E163" s="1">
+        <v>42495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>186</v>
+      </c>
+      <c r="B165" s="1">
+        <v>42495</v>
+      </c>
+      <c r="C165" s="1">
+        <v>42495</v>
+      </c>
+      <c r="D165" s="1">
+        <v>42502</v>
+      </c>
+      <c r="E165" s="1">
+        <v>42502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>190</v>
+      </c>
+      <c r="B169" s="1">
+        <v>42451</v>
+      </c>
+      <c r="C169" s="1">
+        <v>42451</v>
+      </c>
+      <c r="D169" s="1">
+        <v>42458</v>
+      </c>
+      <c r="E169" s="1">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>192</v>
+      </c>
+      <c r="B171" s="1">
+        <v>42481</v>
+      </c>
+      <c r="C171" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D171" s="1">
+        <v>42488</v>
+      </c>
+      <c r="E171" s="1">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>193</v>
+      </c>
+      <c r="B172" s="1">
+        <v>42502</v>
+      </c>
+      <c r="C172" s="1">
+        <v>42502</v>
+      </c>
+      <c r="D172" s="1">
+        <v>42509</v>
+      </c>
+      <c r="E172" s="1">
+        <v>42509</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>196</v>
+      </c>
+      <c r="B175" s="1">
+        <v>42500</v>
+      </c>
+      <c r="C175" s="1">
+        <v>42500</v>
+      </c>
+      <c r="D175" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E175" s="1">
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>197</v>
+      </c>
+      <c r="B176" s="1">
+        <v>42474</v>
+      </c>
+      <c r="C176" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D176" s="1">
+        <v>42481</v>
+      </c>
+      <c r="E176" s="1">
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>201</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42474</v>
+      </c>
+      <c r="C180" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D180" s="1">
+        <v>42481</v>
+      </c>
+      <c r="E180" s="1">
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>202</v>
+      </c>
+      <c r="B181" s="1">
+        <v>42481</v>
+      </c>
+      <c r="C181" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D181" s="1">
+        <v>42488</v>
+      </c>
+      <c r="E181" s="1">
+        <v>42488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>204</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42481</v>
+      </c>
+      <c r="C182" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D182" s="1">
+        <v>42488</v>
+      </c>
+      <c r="E182" s="1">
+        <v>42488</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>207</v>
+      </c>
+      <c r="B185" s="1">
+        <v>42511</v>
+      </c>
+      <c r="C185" s="1">
+        <v>42511</v>
+      </c>
+      <c r="D185" s="1">
+        <v>42518</v>
+      </c>
+      <c r="E185" s="1">
+        <v>42525</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>209</v>
+      </c>
+      <c r="B186" s="1">
+        <v>42479</v>
+      </c>
+      <c r="C186" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D186" s="1">
+        <v>42486</v>
+      </c>
+      <c r="E186" s="1">
+        <v>42488</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>210</v>
+      </c>
+      <c r="B187" s="1">
+        <v>42479</v>
+      </c>
+      <c r="C187" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D187" s="1">
+        <v>42486</v>
+      </c>
+      <c r="E187" s="1">
+        <v>42486</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>211</v>
+      </c>
+      <c r="B188" s="1">
+        <v>42714</v>
+      </c>
+      <c r="C188" s="1">
+        <v>42717</v>
+      </c>
+      <c r="D188" s="1">
+        <v>42724</v>
+      </c>
+      <c r="E188" s="1">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>213</v>
+      </c>
+      <c r="B190" s="1">
+        <v>42451</v>
+      </c>
+      <c r="C190" s="1">
+        <v>42451</v>
+      </c>
+      <c r="D190" s="1">
+        <v>42458</v>
+      </c>
+      <c r="E190" s="1">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>215</v>
+      </c>
+      <c r="B192" s="1">
+        <v>42493</v>
+      </c>
+      <c r="C192" s="1">
+        <v>42493</v>
+      </c>
+      <c r="D192" s="1">
+        <v>42500</v>
+      </c>
+      <c r="E192" s="1">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>217</v>
+      </c>
+      <c r="B193" s="1">
+        <v>42458</v>
+      </c>
+      <c r="C193" s="1">
+        <v>42458</v>
+      </c>
+      <c r="D193" s="1">
+        <v>42465</v>
+      </c>
+      <c r="E193" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>218</v>
+      </c>
+      <c r="B194" s="1">
+        <v>42430</v>
+      </c>
+      <c r="C194" s="1">
+        <v>42430</v>
+      </c>
+      <c r="D194" s="1">
+        <v>42437</v>
+      </c>
+      <c r="E194" s="1">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>219</v>
+      </c>
+      <c r="B195" s="1">
+        <v>42712</v>
+      </c>
+      <c r="C195" s="1">
+        <v>42712</v>
+      </c>
+      <c r="D195" s="1">
+        <v>42719</v>
+      </c>
+      <c r="E195" s="1">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>223</v>
+      </c>
+      <c r="B196" s="1">
+        <v>42759</v>
+      </c>
+      <c r="C196" s="1">
+        <v>42759</v>
+      </c>
+      <c r="D196" s="1">
+        <v>42766</v>
+      </c>
+      <c r="E196" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>225</v>
+      </c>
+      <c r="B197" s="1">
+        <v>42675</v>
+      </c>
+      <c r="C197" s="1">
+        <v>42675</v>
+      </c>
+      <c r="D197" s="1">
+        <v>42682</v>
+      </c>
+      <c r="E197" s="1">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>226</v>
+      </c>
+      <c r="B198" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C198" s="1">
+        <v>42682</v>
+      </c>
+      <c r="D198" s="1">
+        <v>42689</v>
+      </c>
+      <c r="E198" s="1">
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>227</v>
+      </c>
+      <c r="B199" s="1">
+        <v>42745</v>
+      </c>
+      <c r="C199" s="1">
+        <v>42745</v>
+      </c>
+      <c r="D199" s="1">
+        <v>42752</v>
+      </c>
+      <c r="E199" s="1">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>229</v>
+      </c>
+      <c r="B200" s="1">
+        <v>42668</v>
+      </c>
+      <c r="C200" s="1">
+        <v>42668</v>
+      </c>
+      <c r="D200" s="1">
+        <v>42675</v>
+      </c>
+      <c r="E200" s="1">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>231</v>
+      </c>
+      <c r="B201" s="1">
+        <v>42668</v>
+      </c>
+      <c r="C201" s="1">
+        <v>42668</v>
+      </c>
+      <c r="D201" s="1">
+        <v>42675</v>
+      </c>
+      <c r="E201" s="1">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>232</v>
+      </c>
+      <c r="B202" s="1">
+        <v>42677</v>
+      </c>
+      <c r="C202" s="1">
+        <v>42677</v>
+      </c>
+      <c r="D202" s="1">
+        <v>42684</v>
+      </c>
+      <c r="E202" s="1">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>233</v>
+      </c>
+      <c r="B203" s="1">
+        <v>42677</v>
+      </c>
+      <c r="C203" s="1">
+        <v>42677</v>
+      </c>
+      <c r="D203" s="1">
+        <v>42684</v>
+      </c>
+      <c r="E203" s="1">
+        <v>42684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="123.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11004,7 +13899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -11014,12 +13909,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
